--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1302B12E-A172-1D4F-81DA-EDA25B154817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B2BC95-70A6-714B-9787-097A16D754F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14800" yWindow="2260" windowWidth="21040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1523,13 +1523,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:G88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="109" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B2BC95-70A6-714B-9787-097A16D754F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3592A9-CFF8-AA4D-91F2-76839BD35F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14800" yWindow="2260" windowWidth="21040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="181">
   <si>
     <t>title</t>
   </si>
@@ -97,466 +97,475 @@
     <t>2018.05.19</t>
   </si>
   <si>
+    <t>2018.06.02</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十二)--推荐系统中的EE问题及基本Bandit算法</t>
+  </si>
+  <si>
+    <t>2018.06.09</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十三)--linUCB方法浅析及实现</t>
+  </si>
+  <si>
+    <t>2018.06.11</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十四)--《DRN:A Deep Reinforcement Learning Framework for News Recommendation》</t>
+  </si>
+  <si>
+    <t>2018.06.12</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十五)--强化学习在京东推荐中的探索</t>
+  </si>
+  <si>
+    <t>2018.06.16</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十六)--详解推荐系统中的常用评测指标</t>
+  </si>
+  <si>
+    <t>2018.06.18</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十七)--探秘阿里之MLR算法浅析及实现</t>
+  </si>
+  <si>
+    <t>2018.06.23</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十八)--探秘阿里之深度兴趣网络(DIN)浅析及实现</t>
+  </si>
+  <si>
+    <t>2018.06.26</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十九)--探秘阿里之完整空间多任务模型ESMM</t>
+  </si>
+  <si>
+    <t>2018.06.27</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十)--贝叶斯个性化排序(BPR)算法原理及实战</t>
+  </si>
+  <si>
+    <t>2018.06.29</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十一)--阶段性回顾</t>
+  </si>
+  <si>
+    <t>2018.07.18</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十二)--DeepFM升级版XDeepFM模型强势来袭！</t>
+  </si>
+  <si>
+    <t>2018.09.22</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十三)--大一统信息检索模型IRGAN在推荐领域的应用</t>
+  </si>
+  <si>
+    <t>2018.09.25</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十四)--深度兴趣进化网络DIEN原理及实战！</t>
+  </si>
+  <si>
+    <t>2018.11.04</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十五)--当知识图谱遇上个性化推荐</t>
+  </si>
+  <si>
+    <t>2018.11.05</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十六)--知识图谱与推荐系统结合之DKN模型原理及实现</t>
+  </si>
+  <si>
+    <t>2018.11.08</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十七)--知识图谱与推荐系统结合之RippleNet模型原理及实现</t>
+  </si>
+  <si>
+    <t>2018.11.12</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十八)--知识图谱与推荐系统结合之MKR模型原理及实现</t>
+  </si>
+  <si>
+    <t>2018.11.19</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十九)--协同记忆网络理论及实践</t>
+  </si>
+  <si>
+    <t>2019.01.15</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十)--深度矩阵分解模型理论及实践</t>
+  </si>
+  <si>
+    <t>2019.02.15</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十一)--使用自注意力机制进行物品推荐</t>
+  </si>
+  <si>
+    <t>2019.02.27</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十二)--《推荐系统实践》思维导图</t>
+  </si>
+  <si>
+    <t>2019.03.01</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十三)--Neural Attentive Item Similarity Model</t>
+  </si>
+  <si>
+    <t>2019.03.06</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十四)--YouTube深度学习推荐系统</t>
+  </si>
+  <si>
+    <t>2019.03.09</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十五)--强化学习在京东推荐中的探索(二)</t>
+  </si>
+  <si>
+    <t>2019.03.14</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十六)--Learning and Transferring IDs Representation in E-commerce</t>
+  </si>
+  <si>
+    <t>2019.04.04</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十七)--基于多任务学习的可解释性推荐系统</t>
+  </si>
+  <si>
+    <t>2019.04.06</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十八)--CFGAN:一种基于GAN的协同过滤推荐框架</t>
+  </si>
+  <si>
+    <t>2019.04.13</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十九)-推荐系统中召回策略演进！</t>
+  </si>
+  <si>
+    <t>2019.04.14</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十)-SESSION-BASED RECOMMENDATIONS WITH RECURRENT NEURAL NETWORKS</t>
+  </si>
+  <si>
+    <t>2019.04.29</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十一)-Improved Recurrent Neural Networks for Session-based Recommendations</t>
+  </si>
+  <si>
+    <t>2019.05.02</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十二)-使用图神经网络做基于会话的推荐</t>
+  </si>
+  <si>
+    <t>2019.05.09</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十三)-考虑用户微观行为的电商推荐</t>
+  </si>
+  <si>
+    <t>2019.05.10</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十四)-Airbnb实时搜索排序中的Embedding技巧</t>
+  </si>
+  <si>
+    <t>2019.05.12</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十五)-探秘阿里之深度会话兴趣网络DSIN</t>
+  </si>
+  <si>
+    <t>2019.05.18</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十六)-阿里电商推荐中亿级商品的embedding策略</t>
+  </si>
+  <si>
+    <t>2019.05.28</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十七)-TEM:基于树模型构建可解释性推荐系统</t>
+  </si>
+  <si>
+    <t>2019.05.30</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十八)-BST:将Transformer用于淘宝电商推荐</t>
+  </si>
+  <si>
+    <t>2019.05.31</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十九)-九篇阿里推荐相关论文汇总！</t>
+  </si>
+  <si>
+    <t>2019.06.02</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十)-使用强化学习优化用户的长期体验</t>
+  </si>
+  <si>
+    <t>2019.06.08</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十一)-谈谈推荐系统中的冷启动</t>
+  </si>
+  <si>
+    <t>2019.06.09</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十二)-基于注意力机制的用户行为建模框架ATRank</t>
+  </si>
+  <si>
+    <t>2019.06.23</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十三)-DUPN：通过多任务学习用户的通用表示</t>
+  </si>
+  <si>
+    <t>2019.06.30</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十四)-使用GAN搭建强化学习仿真环境</t>
+  </si>
+  <si>
+    <t>2019.07.04</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十五)-[阿里]考虑时空域影响的点击率预估模型DSTN</t>
+  </si>
+  <si>
+    <t>2019.07.11</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十六)-[阿里]融合表示学习的点击率预估模型DeepMCP</t>
+  </si>
+  <si>
+    <t>2019.07.14</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十七)-[阿里]如何精确推荐一屏物品？</t>
+  </si>
+  <si>
+    <t>2019.07.21</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十八)-基于“翻译”的序列推荐方法</t>
+  </si>
+  <si>
+    <t>2019.07.28</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(五十九)-FM家族的新朋友FAT-DeepFFM</t>
+  </si>
+  <si>
+    <t>2019.08.01</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十)-FM家族的新朋友之TransFM</t>
+  </si>
+  <si>
+    <t>2019.08.11</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十一)-[阿里]使用Bert来进行序列推荐</t>
+  </si>
+  <si>
+    <t>2019.08.18</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十二)-[阿里]电商推荐中的特殊特征蒸馏</t>
+  </si>
+  <si>
+    <t>2019.08.23</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十三)-[阿里]大型推荐系统中的深度序列匹配模型SDM</t>
+  </si>
+  <si>
+    <t>2019.09.14</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十四)-通过自注意力机制来自动学习特征组合</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十五)-负采样点击率修正的那些事</t>
+  </si>
+  <si>
+    <t>2019.09.28</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十六)-[阿里]基于多任务学习的CVR预估模型ESM2</t>
+  </si>
+  <si>
+    <t>2019.10.19</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十七)-计算广告中的COEC简介</t>
+  </si>
+  <si>
+    <t>2019.10.22</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十八)-建模多任务学习中任务相关性的模型MMoE</t>
+  </si>
+  <si>
+    <t>2019.10.27</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(六十九)-youtube视频推荐中的多任务排序系统</t>
+  </si>
+  <si>
+    <t>2019.11.03</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十)-[阿里]推荐中的个性化重排序</t>
+  </si>
+  <si>
+    <t>2019.11.10</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十一)-[华为]一种消除CTR预估中位置偏置的框架</t>
+  </si>
+  <si>
+    <t>2019.12.01</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十二)-[谷歌]采样修正的双塔模型</t>
+  </si>
+  <si>
+    <t>2019.12.14</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十三)-[微软]通过对抗训练消除位置偏置信息</t>
+  </si>
+  <si>
+    <t>2019.12.21</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十四)-[天猫]MIND：多兴趣向量召回</t>
+  </si>
+  <si>
+    <t>2019.12.22</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十五)-考虑CPM的评估方法csAUC</t>
+  </si>
+  <si>
+    <t>2020.1.12</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十六)-CVR预估中的延迟反馈问题建模</t>
+  </si>
+  <si>
+    <t>2020.2.23</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十七)-Field-weighted Factorization Machines(FwFM)</t>
+  </si>
+  <si>
+    <t>2020.2.29</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十八)-CFM:结合3D卷积的FM模型</t>
+  </si>
+  <si>
+    <t>2020.3.07</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(七十九)-序列推荐中使用长尾商品提升推荐多样性</t>
+  </si>
+  <si>
+    <t>2020.3.13</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十)-在评分预测中建模“同化-对比”效应</t>
+  </si>
+  <si>
+    <t>2020.3.15</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十一)-[阿里]DMR：Matching和Ranking相结合的点击率预估模型</t>
+  </si>
+  <si>
+    <t>2020.3.28</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十二)-[阿里]可视化分析点击率预估模型</t>
+  </si>
+  <si>
+    <t>2020.3.29</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十三)-[阿里]记忆增强网络—MA-DNN模型介绍</t>
+  </si>
+  <si>
+    <t>2020.5.23</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十四)-[阿里]抽取用户多维度兴趣的DHAN网络介绍</t>
+  </si>
+  <si>
+    <t>2020.6.06</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十五)-[阿里]长用户行为序列建模探索:MIMN</t>
+  </si>
+  <si>
+    <t>2020.6.14</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十六)-[腾讯&amp;微博]GateNet:使用门机制提升点击率预估效果</t>
+  </si>
+  <si>
+    <t>2020.7.11</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十七)-[阿里]基于搜索的用户终身行为序列建模</t>
+  </si>
+  <si>
+    <t>2020.7.19</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九)--评价指标AUC原理及实践</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>推荐系统遇上深度学习(十一)--神经协同过滤NCF原理及实战</t>
-  </si>
-  <si>
-    <t>2018.06.02</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十二)--推荐系统中的EE问题及基本Bandit算法</t>
-  </si>
-  <si>
-    <t>2018.06.09</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十三)--linUCB方法浅析及实现</t>
-  </si>
-  <si>
-    <t>2018.06.11</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十四)--《DRN:A Deep Reinforcement Learning Framework for News Recommendation》</t>
-  </si>
-  <si>
-    <t>2018.06.12</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十五)--强化学习在京东推荐中的探索</t>
-  </si>
-  <si>
-    <t>2018.06.16</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十六)--详解推荐系统中的常用评测指标</t>
-  </si>
-  <si>
-    <t>2018.06.18</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十七)--探秘阿里之MLR算法浅析及实现</t>
-  </si>
-  <si>
-    <t>2018.06.23</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十八)--探秘阿里之深度兴趣网络(DIN)浅析及实现</t>
-  </si>
-  <si>
-    <t>2018.06.26</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十九)--探秘阿里之完整空间多任务模型ESMM</t>
-  </si>
-  <si>
-    <t>2018.06.27</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十)--贝叶斯个性化排序(BPR)算法原理及实战</t>
-  </si>
-  <si>
-    <t>2018.06.29</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十一)--阶段性回顾</t>
-  </si>
-  <si>
-    <t>2018.07.18</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十二)--DeepFM升级版XDeepFM模型强势来袭！</t>
-  </si>
-  <si>
-    <t>2018.09.22</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十三)--大一统信息检索模型IRGAN在推荐领域的应用</t>
-  </si>
-  <si>
-    <t>2018.09.25</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十四)--深度兴趣进化网络DIEN原理及实战！</t>
-  </si>
-  <si>
-    <t>2018.11.04</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十五)--当知识图谱遇上个性化推荐</t>
-  </si>
-  <si>
-    <t>2018.11.05</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十六)--知识图谱与推荐系统结合之DKN模型原理及实现</t>
-  </si>
-  <si>
-    <t>2018.11.08</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十七)--知识图谱与推荐系统结合之RippleNet模型原理及实现</t>
-  </si>
-  <si>
-    <t>2018.11.12</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十八)--知识图谱与推荐系统结合之MKR模型原理及实现</t>
-  </si>
-  <si>
-    <t>2018.11.19</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十九)--协同记忆网络理论及实践</t>
-  </si>
-  <si>
-    <t>2019.01.15</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十)--深度矩阵分解模型理论及实践</t>
-  </si>
-  <si>
-    <t>2019.02.15</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十一)--使用自注意力机制进行物品推荐</t>
-  </si>
-  <si>
-    <t>2019.02.27</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十二)--《推荐系统实践》思维导图</t>
-  </si>
-  <si>
-    <t>2019.03.01</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十三)--Neural Attentive Item Similarity Model</t>
-  </si>
-  <si>
-    <t>2019.03.06</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十四)--YouTube深度学习推荐系统</t>
-  </si>
-  <si>
-    <t>2019.03.09</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十五)--强化学习在京东推荐中的探索(二)</t>
-  </si>
-  <si>
-    <t>2019.03.14</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十六)--Learning and Transferring IDs Representation in E-commerce</t>
-  </si>
-  <si>
-    <t>2019.04.04</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十七)--基于多任务学习的可解释性推荐系统</t>
-  </si>
-  <si>
-    <t>2019.04.06</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十八)--CFGAN:一种基于GAN的协同过滤推荐框架</t>
-  </si>
-  <si>
-    <t>2019.04.13</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十九)-推荐系统中召回策略演进！</t>
-  </si>
-  <si>
-    <t>2019.04.14</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十)-SESSION-BASED RECOMMENDATIONS WITH RECURRENT NEURAL NETWORKS</t>
-  </si>
-  <si>
-    <t>2019.04.29</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十一)-Improved Recurrent Neural Networks for Session-based Recommendations</t>
-  </si>
-  <si>
-    <t>2019.05.02</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十二)-使用图神经网络做基于会话的推荐</t>
-  </si>
-  <si>
-    <t>2019.05.09</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十三)-考虑用户微观行为的电商推荐</t>
-  </si>
-  <si>
-    <t>2019.05.10</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十四)-Airbnb实时搜索排序中的Embedding技巧</t>
-  </si>
-  <si>
-    <t>2019.05.12</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十五)-探秘阿里之深度会话兴趣网络DSIN</t>
-  </si>
-  <si>
-    <t>2019.05.18</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十六)-阿里电商推荐中亿级商品的embedding策略</t>
-  </si>
-  <si>
-    <t>2019.05.28</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十七)-TEM:基于树模型构建可解释性推荐系统</t>
-  </si>
-  <si>
-    <t>2019.05.30</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十八)-BST:将Transformer用于淘宝电商推荐</t>
-  </si>
-  <si>
-    <t>2019.05.31</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十九)-九篇阿里推荐相关论文汇总！</t>
-  </si>
-  <si>
-    <t>2019.06.02</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十)-使用强化学习优化用户的长期体验</t>
-  </si>
-  <si>
-    <t>2019.06.08</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十一)-谈谈推荐系统中的冷启动</t>
-  </si>
-  <si>
-    <t>2019.06.09</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十二)-基于注意力机制的用户行为建模框架ATRank</t>
-  </si>
-  <si>
-    <t>2019.06.23</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十三)-DUPN：通过多任务学习用户的通用表示</t>
-  </si>
-  <si>
-    <t>2019.06.30</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十四)-使用GAN搭建强化学习仿真环境</t>
-  </si>
-  <si>
-    <t>2019.07.04</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十五)-[阿里]考虑时空域影响的点击率预估模型DSTN</t>
-  </si>
-  <si>
-    <t>2019.07.11</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十六)-[阿里]融合表示学习的点击率预估模型DeepMCP</t>
-  </si>
-  <si>
-    <t>2019.07.14</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十七)-[阿里]如何精确推荐一屏物品？</t>
-  </si>
-  <si>
-    <t>2019.07.21</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十八)-基于“翻译”的序列推荐方法</t>
-  </si>
-  <si>
-    <t>2019.07.28</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(五十九)-FM家族的新朋友FAT-DeepFFM</t>
-  </si>
-  <si>
-    <t>2019.08.01</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十)-FM家族的新朋友之TransFM</t>
-  </si>
-  <si>
-    <t>2019.08.11</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十一)-[阿里]使用Bert来进行序列推荐</t>
-  </si>
-  <si>
-    <t>2019.08.18</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十二)-[阿里]电商推荐中的特殊特征蒸馏</t>
-  </si>
-  <si>
-    <t>2019.08.23</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十三)-[阿里]大型推荐系统中的深度序列匹配模型SDM</t>
-  </si>
-  <si>
-    <t>2019.09.14</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十四)-通过自注意力机制来自动学习特征组合</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十五)-负采样点击率修正的那些事</t>
-  </si>
-  <si>
-    <t>2019.09.28</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十六)-[阿里]基于多任务学习的CVR预估模型ESM2</t>
-  </si>
-  <si>
-    <t>2019.10.19</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十七)-计算广告中的COEC简介</t>
-  </si>
-  <si>
-    <t>2019.10.22</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十八)-建模多任务学习中任务相关性的模型MMoE</t>
-  </si>
-  <si>
-    <t>2019.10.27</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(六十九)-youtube视频推荐中的多任务排序系统</t>
-  </si>
-  <si>
-    <t>2019.11.03</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十)-[阿里]推荐中的个性化重排序</t>
-  </si>
-  <si>
-    <t>2019.11.10</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十一)-[华为]一种消除CTR预估中位置偏置的框架</t>
-  </si>
-  <si>
-    <t>2019.12.01</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十二)-[谷歌]采样修正的双塔模型</t>
-  </si>
-  <si>
-    <t>2019.12.14</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十三)-[微软]通过对抗训练消除位置偏置信息</t>
-  </si>
-  <si>
-    <t>2019.12.21</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十四)-[天猫]MIND：多兴趣向量召回</t>
-  </si>
-  <si>
-    <t>2019.12.22</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十五)-考虑CPM的评估方法csAUC</t>
-  </si>
-  <si>
-    <t>2020.1.12</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十六)-CVR预估中的延迟反馈问题建模</t>
-  </si>
-  <si>
-    <t>2020.2.23</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十七)-Field-weighted Factorization Machines(FwFM)</t>
-  </si>
-  <si>
-    <t>2020.2.29</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十八)-CFM:结合3D卷积的FM模型</t>
-  </si>
-  <si>
-    <t>2020.3.07</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(七十九)-序列推荐中使用长尾商品提升推荐多样性</t>
-  </si>
-  <si>
-    <t>2020.3.13</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十)-在评分预测中建模“同化-对比”效应</t>
-  </si>
-  <si>
-    <t>2020.3.15</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十一)-[阿里]DMR：Matching和Ranking相结合的点击率预估模型</t>
-  </si>
-  <si>
-    <t>2020.3.28</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十二)-[阿里]可视化分析点击率预估模型</t>
-  </si>
-  <si>
-    <t>2020.3.29</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十三)-[阿里]记忆增强网络—MA-DNN模型介绍</t>
-  </si>
-  <si>
-    <t>2020.5.23</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十四)-[阿里]抽取用户多维度兴趣的DHAN网络介绍</t>
-  </si>
-  <si>
-    <t>2020.6.06</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十五)-[阿里]长用户行为序列建模探索:MIMN</t>
-  </si>
-  <si>
-    <t>2020.6.14</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十六)-[腾讯&amp;微博]GateNet:使用门机制提升点击率预估效果</t>
-  </si>
-  <si>
-    <t>2020.7.11</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十七)-[阿里]基于搜索的用户终身行为序列建模</t>
-  </si>
-  <si>
-    <t>2020.7.19</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(九)--评价指标AUC原理及实践</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没细看</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1521,13 +1530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1535,7 +1544,7 @@
     <col min="1" max="1" width="74.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1557,8 +1566,11 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1581,7 +1593,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1604,7 +1616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1650,7 +1662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1673,7 +1685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1696,7 +1708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1719,7 +1731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1742,9 +1754,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1765,7 +1777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1788,12 +1800,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>0.68958333333333333</v>
@@ -1810,13 +1822,16 @@
       <c r="G12">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C13" s="1">
         <v>0.69930555555555562</v>
@@ -1834,12 +1849,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>0.94791666666666663</v>
@@ -1857,12 +1872,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C15" s="1">
         <v>0.95763888888888893</v>
@@ -1880,12 +1895,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C16" s="1">
         <v>0.6381944444444444</v>
@@ -1905,10 +1920,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C17" s="1">
         <v>0.65902777777777777</v>
@@ -1928,10 +1943,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>0.46597222222222223</v>
@@ -1951,10 +1966,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C19" s="1">
         <v>0.53888888888888886</v>
@@ -1974,10 +1989,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C20" s="1">
         <v>0.80694444444444446</v>
@@ -1997,10 +2012,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
       </c>
       <c r="C21" s="1">
         <v>0.9770833333333333</v>
@@ -2020,10 +2035,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
       </c>
       <c r="C22" s="1">
         <v>2.0833333333333333E-3</v>
@@ -2043,10 +2058,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
       </c>
       <c r="C23" s="1">
         <v>0.59722222222222221</v>
@@ -2066,10 +2081,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
       </c>
       <c r="C24" s="1">
         <v>0.90416666666666667</v>
@@ -2089,10 +2104,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
       </c>
       <c r="C25" s="1">
         <v>0.90208333333333324</v>
@@ -2112,10 +2127,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>0.53125</v>
@@ -2123,10 +2138,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
       </c>
       <c r="C27" s="1">
         <v>0.67083333333333339</v>
@@ -2146,10 +2161,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
       </c>
       <c r="C28" s="1">
         <v>0.57013888888888886</v>
@@ -2169,10 +2184,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
       </c>
       <c r="C29" s="1">
         <v>0.8354166666666667</v>
@@ -2192,10 +2207,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
       </c>
       <c r="C30" s="1">
         <v>0.75416666666666676</v>
@@ -2215,10 +2230,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C31" s="1">
         <v>0.61041666666666672</v>
@@ -2238,10 +2253,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C32" s="1">
         <v>0.5395833333333333</v>
@@ -2261,10 +2276,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C33" s="1">
         <v>0.9291666666666667</v>
@@ -2284,10 +2299,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C34" s="1">
         <v>0.99930555555555556</v>
@@ -2307,10 +2322,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C35" s="1">
         <v>0.71944444444444444</v>
@@ -2330,10 +2345,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C36" s="1">
         <v>0.64374999999999993</v>
@@ -2353,10 +2368,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C37" s="1">
         <v>0.9868055555555556</v>
@@ -2376,10 +2391,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C38" s="1">
         <v>0.96666666666666667</v>
@@ -2399,10 +2414,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C39" s="1">
         <v>0.88263888888888886</v>
@@ -2422,10 +2437,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C40" s="1">
         <v>0.69166666666666676</v>
@@ -2445,10 +2460,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
       </c>
       <c r="C41" s="1">
         <v>0.73472222222222217</v>
@@ -2468,10 +2483,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
         <v>85</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
       </c>
       <c r="C42" s="1">
         <v>0.80833333333333324</v>
@@ -2491,10 +2506,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
         <v>87</v>
-      </c>
-      <c r="B43" t="s">
-        <v>88</v>
       </c>
       <c r="C43" s="1">
         <v>0.92222222222222217</v>
@@ -2514,10 +2529,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
       </c>
       <c r="C44" s="1">
         <v>0.73611111111111116</v>
@@ -2537,10 +2552,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
         <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
       </c>
       <c r="C45" s="1">
         <v>0.91736111111111107</v>
@@ -2560,10 +2575,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
       </c>
       <c r="C46" s="1">
         <v>0.53402777777777777</v>
@@ -2583,10 +2598,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
       </c>
       <c r="C47" s="1">
         <v>0.59861111111111109</v>
@@ -2606,10 +2621,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
         <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
       </c>
       <c r="C48" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2629,10 +2644,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
       </c>
       <c r="C49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2652,10 +2667,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
       </c>
       <c r="C50" s="1">
         <v>0.68125000000000002</v>
@@ -2675,10 +2690,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C51" s="1">
         <v>0.75138888888888899</v>
@@ -2698,10 +2713,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C52" s="1">
         <v>0.44791666666666669</v>
@@ -2721,10 +2736,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="C53" s="1">
         <v>0.91041666666666676</v>
@@ -2744,10 +2759,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C54" s="1">
         <v>0.72638888888888886</v>
@@ -2767,10 +2782,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C55" s="1">
         <v>0.97569444444444453</v>
@@ -2790,10 +2805,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C56" s="1">
         <v>0.97152777777777777</v>
@@ -2813,10 +2828,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C57" s="1">
         <v>0.90277777777777779</v>
@@ -2836,10 +2851,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C58" s="1">
         <v>0.94513888888888886</v>
@@ -2859,10 +2874,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C59" s="1">
         <v>0.7090277777777777</v>
@@ -2882,10 +2897,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C60" s="1">
         <v>0.93055555555555547</v>
@@ -2905,10 +2920,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
         <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
       </c>
       <c r="C61" s="1">
         <v>0.69305555555555554</v>
@@ -2928,10 +2943,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
         <v>125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
       </c>
       <c r="C62" s="1">
         <v>0.43472222222222223</v>
@@ -2951,10 +2966,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
         <v>127</v>
-      </c>
-      <c r="B63" t="s">
-        <v>128</v>
       </c>
       <c r="C63" s="1">
         <v>0.63194444444444442</v>
@@ -2974,10 +2989,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
         <v>129</v>
-      </c>
-      <c r="B64" t="s">
-        <v>130</v>
       </c>
       <c r="C64" s="1">
         <v>0.55972222222222223</v>
@@ -2997,10 +3012,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="1">
         <v>0.71666666666666667</v>
@@ -3020,10 +3035,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
         <v>132</v>
-      </c>
-      <c r="B66" t="s">
-        <v>133</v>
       </c>
       <c r="C66" s="1">
         <v>0.73333333333333339</v>
@@ -3043,10 +3058,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
         <v>134</v>
-      </c>
-      <c r="B67" t="s">
-        <v>135</v>
       </c>
       <c r="C67" s="1">
         <v>0.53611111111111109</v>
@@ -3066,10 +3081,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
         <v>136</v>
-      </c>
-      <c r="B68" t="s">
-        <v>137</v>
       </c>
       <c r="C68" s="1">
         <v>0.99513888888888891</v>
@@ -3089,10 +3104,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
         <v>138</v>
-      </c>
-      <c r="B69" t="s">
-        <v>139</v>
       </c>
       <c r="C69" s="1">
         <v>0.79861111111111116</v>
@@ -3112,10 +3127,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
         <v>140</v>
-      </c>
-      <c r="B70" t="s">
-        <v>141</v>
       </c>
       <c r="C70" s="1">
         <v>0.97986111111111107</v>
@@ -3135,10 +3150,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C71" s="1">
         <v>0.4284722222222222</v>
@@ -3158,10 +3173,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C72" s="1">
         <v>0.50138888888888888</v>
@@ -3181,10 +3196,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C73" s="1">
         <v>0.9159722222222223</v>
@@ -3204,10 +3219,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C74" s="1">
         <v>0.70277777777777783</v>
@@ -3227,10 +3242,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="C75" s="1">
         <v>0.76250000000000007</v>
@@ -3250,10 +3265,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C76" s="1">
         <v>0.69930555555555562</v>
@@ -3273,10 +3288,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C77" s="1">
         <v>0.77916666666666667</v>
@@ -3296,10 +3311,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C78" s="1">
         <v>0.85138888888888886</v>
@@ -3319,10 +3334,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C79" s="1">
         <v>0.67847222222222225</v>
@@ -3342,10 +3357,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C80" s="1">
         <v>0.95416666666666661</v>
@@ -3365,10 +3380,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" t="s">
         <v>162</v>
-      </c>
-      <c r="B81" t="s">
-        <v>163</v>
       </c>
       <c r="C81" s="1">
         <v>0.88888888888888884</v>
@@ -3388,10 +3403,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
         <v>164</v>
-      </c>
-      <c r="B82" t="s">
-        <v>165</v>
       </c>
       <c r="C82" s="1">
         <v>0.78680555555555554</v>
@@ -3411,10 +3426,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
         <v>166</v>
-      </c>
-      <c r="B83" t="s">
-        <v>167</v>
       </c>
       <c r="C83" s="1">
         <v>0.6118055555555556</v>
@@ -3434,10 +3449,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
         <v>168</v>
-      </c>
-      <c r="B84" t="s">
-        <v>169</v>
       </c>
       <c r="C84" s="1">
         <v>0.62222222222222223</v>
@@ -3457,10 +3472,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
         <v>170</v>
-      </c>
-      <c r="B85" t="s">
-        <v>171</v>
       </c>
       <c r="C85" s="1">
         <v>0.84097222222222223</v>
@@ -3480,10 +3495,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
         <v>172</v>
-      </c>
-      <c r="B86" t="s">
-        <v>173</v>
       </c>
       <c r="C86" s="1">
         <v>0.8833333333333333</v>
@@ -3503,10 +3518,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s">
         <v>174</v>
-      </c>
-      <c r="B87" t="s">
-        <v>175</v>
       </c>
       <c r="C87" s="1">
         <v>0.70347222222222217</v>
@@ -3526,10 +3541,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s">
         <v>176</v>
-      </c>
-      <c r="B88" t="s">
-        <v>177</v>
       </c>
       <c r="C88" s="1">
         <v>0.90069444444444446</v>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3592A9-CFF8-AA4D-91F2-76839BD35F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41D66AA-BC77-6C46-B2EC-C9790175FB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14800" yWindow="2260" windowWidth="21040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="181">
   <si>
     <t>title</t>
   </si>
@@ -100,13 +100,7 @@
     <t>2018.06.02</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(十二)--推荐系统中的EE问题及基本Bandit算法</t>
-  </si>
-  <si>
     <t>2018.06.09</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十三)--linUCB方法浅析及实现</t>
   </si>
   <si>
     <t>2018.06.11</t>
@@ -566,6 +560,14 @@
   </si>
   <si>
     <t>没细看</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十二)--推荐系统中的EE问题及基本Bandit算法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十三)--linUCB方法浅析及实现</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1533,10 +1535,10 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1567,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1756,7 +1758,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1802,7 +1804,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -1823,15 +1825,15 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>0.69930555555555562</v>
@@ -1851,10 +1853,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>0.94791666666666663</v>
@@ -1871,13 +1873,16 @@
       <c r="G14">
         <v>8</v>
       </c>
+      <c r="H14" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>0.95763888888888893</v>
@@ -1897,10 +1902,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>0.6381944444444444</v>
@@ -1920,10 +1925,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
         <v>0.65902777777777777</v>
@@ -1943,10 +1948,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
         <v>0.46597222222222223</v>
@@ -1966,10 +1971,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>0.53888888888888886</v>
@@ -1989,10 +1994,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1">
         <v>0.80694444444444446</v>
@@ -2012,10 +2017,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1">
         <v>0.9770833333333333</v>
@@ -2035,10 +2040,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>2.0833333333333333E-3</v>
@@ -2058,10 +2063,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1">
         <v>0.59722222222222221</v>
@@ -2081,10 +2086,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1">
         <v>0.90416666666666667</v>
@@ -2104,10 +2109,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1">
         <v>0.90208333333333324</v>
@@ -2127,10 +2132,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1">
         <v>0.53125</v>
@@ -2138,10 +2143,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1">
         <v>0.67083333333333339</v>
@@ -2161,10 +2166,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1">
         <v>0.57013888888888886</v>
@@ -2184,10 +2189,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1">
         <v>0.8354166666666667</v>
@@ -2207,10 +2212,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1">
         <v>0.75416666666666676</v>
@@ -2230,10 +2235,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1">
         <v>0.61041666666666672</v>
@@ -2253,10 +2258,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1">
         <v>0.5395833333333333</v>
@@ -2276,10 +2281,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1">
         <v>0.9291666666666667</v>
@@ -2299,10 +2304,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="1">
         <v>0.99930555555555556</v>
@@ -2322,10 +2327,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1">
         <v>0.71944444444444444</v>
@@ -2345,10 +2350,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1">
         <v>0.64374999999999993</v>
@@ -2368,10 +2373,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" s="1">
         <v>0.9868055555555556</v>
@@ -2391,10 +2396,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1">
         <v>0.96666666666666667</v>
@@ -2414,10 +2419,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1">
         <v>0.88263888888888886</v>
@@ -2437,10 +2442,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="1">
         <v>0.69166666666666676</v>
@@ -2460,10 +2465,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1">
         <v>0.73472222222222217</v>
@@ -2483,10 +2488,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1">
         <v>0.80833333333333324</v>
@@ -2506,10 +2511,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C43" s="1">
         <v>0.92222222222222217</v>
@@ -2529,10 +2534,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1">
         <v>0.73611111111111116</v>
@@ -2552,10 +2557,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" s="1">
         <v>0.91736111111111107</v>
@@ -2575,10 +2580,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>0.53402777777777777</v>
@@ -2598,10 +2603,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="1">
         <v>0.59861111111111109</v>
@@ -2621,10 +2626,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2644,10 +2649,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2667,10 +2672,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C50" s="1">
         <v>0.68125000000000002</v>
@@ -2690,10 +2695,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51" s="1">
         <v>0.75138888888888899</v>
@@ -2713,10 +2718,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C52" s="1">
         <v>0.44791666666666669</v>
@@ -2736,10 +2741,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" s="1">
         <v>0.91041666666666676</v>
@@ -2759,10 +2764,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="1">
         <v>0.72638888888888886</v>
@@ -2782,10 +2787,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C55" s="1">
         <v>0.97569444444444453</v>
@@ -2805,10 +2810,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C56" s="1">
         <v>0.97152777777777777</v>
@@ -2828,10 +2833,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" s="1">
         <v>0.90277777777777779</v>
@@ -2851,10 +2856,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C58" s="1">
         <v>0.94513888888888886</v>
@@ -2874,10 +2879,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59" s="1">
         <v>0.7090277777777777</v>
@@ -2897,10 +2902,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" s="1">
         <v>0.93055555555555547</v>
@@ -2920,10 +2925,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C61" s="1">
         <v>0.69305555555555554</v>
@@ -2943,10 +2948,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C62" s="1">
         <v>0.43472222222222223</v>
@@ -2966,10 +2971,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63" s="1">
         <v>0.63194444444444442</v>
@@ -2989,10 +2994,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64" s="1">
         <v>0.55972222222222223</v>
@@ -3012,10 +3017,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" s="1">
         <v>0.71666666666666667</v>
@@ -3035,10 +3040,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" s="1">
         <v>0.73333333333333339</v>
@@ -3058,10 +3063,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="1">
         <v>0.53611111111111109</v>
@@ -3081,10 +3086,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68" s="1">
         <v>0.99513888888888891</v>
@@ -3104,10 +3109,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C69" s="1">
         <v>0.79861111111111116</v>
@@ -3127,10 +3132,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C70" s="1">
         <v>0.97986111111111107</v>
@@ -3150,10 +3155,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1">
         <v>0.4284722222222222</v>
@@ -3173,10 +3178,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1">
         <v>0.50138888888888888</v>
@@ -3196,10 +3201,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C73" s="1">
         <v>0.9159722222222223</v>
@@ -3219,10 +3224,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74" s="1">
         <v>0.70277777777777783</v>
@@ -3242,10 +3247,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C75" s="1">
         <v>0.76250000000000007</v>
@@ -3265,10 +3270,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C76" s="1">
         <v>0.69930555555555562</v>
@@ -3288,10 +3293,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" s="1">
         <v>0.77916666666666667</v>
@@ -3311,10 +3316,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C78" s="1">
         <v>0.85138888888888886</v>
@@ -3334,10 +3339,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C79" s="1">
         <v>0.67847222222222225</v>
@@ -3357,10 +3362,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C80" s="1">
         <v>0.95416666666666661</v>
@@ -3380,10 +3385,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C81" s="1">
         <v>0.88888888888888884</v>
@@ -3403,10 +3408,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C82" s="1">
         <v>0.78680555555555554</v>
@@ -3426,10 +3431,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C83" s="1">
         <v>0.6118055555555556</v>
@@ -3449,10 +3454,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C84" s="1">
         <v>0.62222222222222223</v>
@@ -3472,10 +3477,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C85" s="1">
         <v>0.84097222222222223</v>
@@ -3495,10 +3500,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C86" s="1">
         <v>0.8833333333333333</v>
@@ -3518,10 +3523,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C87" s="1">
         <v>0.70347222222222217</v>
@@ -3541,10 +3546,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C88" s="1">
         <v>0.90069444444444446</v>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41D66AA-BC77-6C46-B2EC-C9790175FB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6D3C6F-CA2E-0A40-B0F5-A46F2B2422CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14800" yWindow="2260" windowWidth="21040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1538,7 +1538,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6D3C6F-CA2E-0A40-B0F5-A46F2B2422CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDD48D5-7866-6343-96D1-7BA47B2CB47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14800" yWindow="2260" windowWidth="21040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">目录!$A$1:$H$88</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="181">
   <si>
     <t>title</t>
   </si>
@@ -122,9 +135,6 @@
   </si>
   <si>
     <t>2018.06.18</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(十七)--探秘阿里之MLR算法浅析及实现</t>
   </si>
   <si>
     <t>2018.06.23</t>
@@ -568,6 +578,10 @@
   </si>
   <si>
     <t>推荐系统遇上深度学习(十三)--linUCB方法浅析及实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(十七)--探秘阿里之MLR算法浅析及实现</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1535,10 +1549,10 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1569,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1758,7 +1772,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1804,7 +1818,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -1825,12 +1839,12 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1853,7 +1867,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1874,7 +1888,7 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1922,8 +1936,11 @@
       <c r="G16">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1945,13 +1962,16 @@
       <c r="G17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C18" s="1">
         <v>0.46597222222222223</v>
@@ -1968,13 +1988,16 @@
       <c r="G18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>0.53888888888888886</v>
@@ -1992,12 +2015,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C20" s="1">
         <v>0.80694444444444446</v>
@@ -2015,12 +2038,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
       <c r="C21" s="1">
         <v>0.9770833333333333</v>
@@ -2038,12 +2061,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>2.0833333333333333E-3</v>
@@ -2061,12 +2084,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
       </c>
       <c r="C23" s="1">
         <v>0.59722222222222221</v>
@@ -2084,12 +2107,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
       </c>
       <c r="C24" s="1">
         <v>0.90416666666666667</v>
@@ -2107,12 +2130,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
       </c>
       <c r="C25" s="1">
         <v>0.90208333333333324</v>
@@ -2130,23 +2153,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
       </c>
       <c r="C26" s="1">
         <v>0.53125</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
       </c>
       <c r="C27" s="1">
         <v>0.67083333333333339</v>
@@ -2164,12 +2187,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
       </c>
       <c r="C28" s="1">
         <v>0.57013888888888886</v>
@@ -2187,12 +2210,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
       </c>
       <c r="C29" s="1">
         <v>0.8354166666666667</v>
@@ -2210,12 +2233,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
       </c>
       <c r="C30" s="1">
         <v>0.75416666666666676</v>
@@ -2233,12 +2256,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C31" s="1">
         <v>0.61041666666666672</v>
@@ -2256,12 +2279,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C32" s="1">
         <v>0.5395833333333333</v>
@@ -2281,10 +2304,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C33" s="1">
         <v>0.9291666666666667</v>
@@ -2304,10 +2327,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C34" s="1">
         <v>0.99930555555555556</v>
@@ -2327,10 +2350,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C35" s="1">
         <v>0.71944444444444444</v>
@@ -2350,10 +2373,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C36" s="1">
         <v>0.64374999999999993</v>
@@ -2373,10 +2396,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C37" s="1">
         <v>0.9868055555555556</v>
@@ -2396,10 +2419,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C38" s="1">
         <v>0.96666666666666667</v>
@@ -2419,10 +2442,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C39" s="1">
         <v>0.88263888888888886</v>
@@ -2442,10 +2465,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C40" s="1">
         <v>0.69166666666666676</v>
@@ -2465,10 +2488,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
       </c>
       <c r="C41" s="1">
         <v>0.73472222222222217</v>
@@ -2488,10 +2511,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
       </c>
       <c r="C42" s="1">
         <v>0.80833333333333324</v>
@@ -2511,10 +2534,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
       </c>
       <c r="C43" s="1">
         <v>0.92222222222222217</v>
@@ -2534,10 +2557,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
       </c>
       <c r="C44" s="1">
         <v>0.73611111111111116</v>
@@ -2557,10 +2580,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
       </c>
       <c r="C45" s="1">
         <v>0.91736111111111107</v>
@@ -2580,10 +2603,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>0.53402777777777777</v>
@@ -2603,10 +2626,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
       </c>
       <c r="C47" s="1">
         <v>0.59861111111111109</v>
@@ -2626,10 +2649,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
       </c>
       <c r="C48" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2649,10 +2672,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
       </c>
       <c r="C49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2672,10 +2695,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
       </c>
       <c r="C50" s="1">
         <v>0.68125000000000002</v>
@@ -2695,10 +2718,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C51" s="1">
         <v>0.75138888888888899</v>
@@ -2718,10 +2741,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C52" s="1">
         <v>0.44791666666666669</v>
@@ -2741,10 +2764,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C53" s="1">
         <v>0.91041666666666676</v>
@@ -2764,10 +2787,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C54" s="1">
         <v>0.72638888888888886</v>
@@ -2787,10 +2810,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C55" s="1">
         <v>0.97569444444444453</v>
@@ -2810,10 +2833,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C56" s="1">
         <v>0.97152777777777777</v>
@@ -2833,10 +2856,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C57" s="1">
         <v>0.90277777777777779</v>
@@ -2856,10 +2879,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="C58" s="1">
         <v>0.94513888888888886</v>
@@ -2879,10 +2902,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C59" s="1">
         <v>0.7090277777777777</v>
@@ -2902,10 +2925,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C60" s="1">
         <v>0.93055555555555547</v>
@@ -2925,10 +2948,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" t="s">
-        <v>121</v>
       </c>
       <c r="C61" s="1">
         <v>0.69305555555555554</v>
@@ -2948,10 +2971,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>123</v>
       </c>
       <c r="C62" s="1">
         <v>0.43472222222222223</v>
@@ -2971,10 +2994,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
         <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>125</v>
       </c>
       <c r="C63" s="1">
         <v>0.63194444444444442</v>
@@ -2994,10 +3017,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
         <v>126</v>
-      </c>
-      <c r="B64" t="s">
-        <v>127</v>
       </c>
       <c r="C64" s="1">
         <v>0.55972222222222223</v>
@@ -3017,10 +3040,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="1">
         <v>0.71666666666666667</v>
@@ -3040,10 +3063,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
         <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
       </c>
       <c r="C66" s="1">
         <v>0.73333333333333339</v>
@@ -3063,10 +3086,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
         <v>131</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
       </c>
       <c r="C67" s="1">
         <v>0.53611111111111109</v>
@@ -3086,10 +3109,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
         <v>133</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
       </c>
       <c r="C68" s="1">
         <v>0.99513888888888891</v>
@@ -3109,10 +3132,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
         <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
       </c>
       <c r="C69" s="1">
         <v>0.79861111111111116</v>
@@ -3132,10 +3155,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
         <v>137</v>
-      </c>
-      <c r="B70" t="s">
-        <v>138</v>
       </c>
       <c r="C70" s="1">
         <v>0.97986111111111107</v>
@@ -3155,10 +3178,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C71" s="1">
         <v>0.4284722222222222</v>
@@ -3178,10 +3201,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C72" s="1">
         <v>0.50138888888888888</v>
@@ -3201,10 +3224,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C73" s="1">
         <v>0.9159722222222223</v>
@@ -3224,10 +3247,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="C74" s="1">
         <v>0.70277777777777783</v>
@@ -3247,10 +3270,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="C75" s="1">
         <v>0.76250000000000007</v>
@@ -3270,10 +3293,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="C76" s="1">
         <v>0.69930555555555562</v>
@@ -3293,10 +3316,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="C77" s="1">
         <v>0.77916666666666667</v>
@@ -3316,10 +3339,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C78" s="1">
         <v>0.85138888888888886</v>
@@ -3339,10 +3362,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C79" s="1">
         <v>0.67847222222222225</v>
@@ -3362,10 +3385,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="C80" s="1">
         <v>0.95416666666666661</v>
@@ -3385,10 +3408,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
         <v>159</v>
-      </c>
-      <c r="B81" t="s">
-        <v>160</v>
       </c>
       <c r="C81" s="1">
         <v>0.88888888888888884</v>
@@ -3408,10 +3431,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
         <v>161</v>
-      </c>
-      <c r="B82" t="s">
-        <v>162</v>
       </c>
       <c r="C82" s="1">
         <v>0.78680555555555554</v>
@@ -3431,10 +3454,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
         <v>163</v>
-      </c>
-      <c r="B83" t="s">
-        <v>164</v>
       </c>
       <c r="C83" s="1">
         <v>0.6118055555555556</v>
@@ -3454,10 +3477,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
         <v>165</v>
-      </c>
-      <c r="B84" t="s">
-        <v>166</v>
       </c>
       <c r="C84" s="1">
         <v>0.62222222222222223</v>
@@ -3477,10 +3500,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
         <v>167</v>
-      </c>
-      <c r="B85" t="s">
-        <v>168</v>
       </c>
       <c r="C85" s="1">
         <v>0.84097222222222223</v>
@@ -3500,10 +3523,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
         <v>169</v>
-      </c>
-      <c r="B86" t="s">
-        <v>170</v>
       </c>
       <c r="C86" s="1">
         <v>0.8833333333333333</v>
@@ -3523,10 +3546,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
         <v>171</v>
-      </c>
-      <c r="B87" t="s">
-        <v>172</v>
       </c>
       <c r="C87" s="1">
         <v>0.70347222222222217</v>
@@ -3546,10 +3569,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
         <v>173</v>
-      </c>
-      <c r="B88" t="s">
-        <v>174</v>
       </c>
       <c r="C88" s="1">
         <v>0.90069444444444446</v>
@@ -3568,6 +3591,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H88" xr:uid="{4BA37A30-DD2E-6047-90C5-539E2E8C8235}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDD48D5-7866-6343-96D1-7BA47B2CB47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5DFFD-6FB8-2E45-AE97-F71DED501A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="2260" windowWidth="21040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="3500" windowWidth="21040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>2018.06.27</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(二十)--贝叶斯个性化排序(BPR)算法原理及实战</t>
-  </si>
-  <si>
     <t>2018.06.29</t>
   </si>
   <si>
@@ -582,6 +579,10 @@
   </si>
   <si>
     <t>推荐系统遇上深度学习(十七)--探秘阿里之MLR算法浅析及实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十)--贝叶斯个性化排序(BPR)算法原理及实战</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1549,10 +1550,10 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1583,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1772,7 +1773,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1818,7 +1819,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -1839,12 +1840,12 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1867,7 +1868,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1888,7 +1889,7 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1937,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1963,12 +1964,12 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
@@ -1989,7 +1990,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2040,10 +2041,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
       </c>
       <c r="C21" s="1">
         <v>0.9770833333333333</v>
@@ -2063,10 +2064,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
       </c>
       <c r="C22" s="1">
         <v>2.0833333333333333E-3</v>
@@ -2086,10 +2087,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="1">
         <v>0.59722222222222221</v>
@@ -2109,10 +2110,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
       </c>
       <c r="C24" s="1">
         <v>0.90416666666666667</v>
@@ -2132,10 +2133,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
       </c>
       <c r="C25" s="1">
         <v>0.90208333333333324</v>
@@ -2155,10 +2156,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
       </c>
       <c r="C26" s="1">
         <v>0.53125</v>
@@ -2166,10 +2167,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
       </c>
       <c r="C27" s="1">
         <v>0.67083333333333339</v>
@@ -2189,10 +2190,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
       </c>
       <c r="C28" s="1">
         <v>0.57013888888888886</v>
@@ -2212,10 +2213,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
       </c>
       <c r="C29" s="1">
         <v>0.8354166666666667</v>
@@ -2235,10 +2236,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
       </c>
       <c r="C30" s="1">
         <v>0.75416666666666676</v>
@@ -2258,10 +2259,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C31" s="1">
         <v>0.61041666666666672</v>
@@ -2281,10 +2282,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C32" s="1">
         <v>0.5395833333333333</v>
@@ -2304,10 +2305,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C33" s="1">
         <v>0.9291666666666667</v>
@@ -2327,10 +2328,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C34" s="1">
         <v>0.99930555555555556</v>
@@ -2350,10 +2351,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C35" s="1">
         <v>0.71944444444444444</v>
@@ -2373,10 +2374,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C36" s="1">
         <v>0.64374999999999993</v>
@@ -2396,10 +2397,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C37" s="1">
         <v>0.9868055555555556</v>
@@ -2419,10 +2420,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C38" s="1">
         <v>0.96666666666666667</v>
@@ -2442,10 +2443,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C39" s="1">
         <v>0.88263888888888886</v>
@@ -2465,10 +2466,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C40" s="1">
         <v>0.69166666666666676</v>
@@ -2488,10 +2489,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
       </c>
       <c r="C41" s="1">
         <v>0.73472222222222217</v>
@@ -2511,10 +2512,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
       </c>
       <c r="C42" s="1">
         <v>0.80833333333333324</v>
@@ -2534,10 +2535,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
       </c>
       <c r="C43" s="1">
         <v>0.92222222222222217</v>
@@ -2557,10 +2558,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
       </c>
       <c r="C44" s="1">
         <v>0.73611111111111116</v>
@@ -2580,10 +2581,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
         <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
       </c>
       <c r="C45" s="1">
         <v>0.91736111111111107</v>
@@ -2603,10 +2604,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
       </c>
       <c r="C46" s="1">
         <v>0.53402777777777777</v>
@@ -2626,10 +2627,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
       </c>
       <c r="C47" s="1">
         <v>0.59861111111111109</v>
@@ -2649,10 +2650,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
       </c>
       <c r="C48" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2672,10 +2673,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>96</v>
       </c>
       <c r="C49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2695,10 +2696,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
         <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
       </c>
       <c r="C50" s="1">
         <v>0.68125000000000002</v>
@@ -2718,10 +2719,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C51" s="1">
         <v>0.75138888888888899</v>
@@ -2741,10 +2742,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C52" s="1">
         <v>0.44791666666666669</v>
@@ -2764,10 +2765,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C53" s="1">
         <v>0.91041666666666676</v>
@@ -2787,10 +2788,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C54" s="1">
         <v>0.72638888888888886</v>
@@ -2810,10 +2811,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="C55" s="1">
         <v>0.97569444444444453</v>
@@ -2833,10 +2834,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C56" s="1">
         <v>0.97152777777777777</v>
@@ -2856,10 +2857,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C57" s="1">
         <v>0.90277777777777779</v>
@@ -2879,10 +2880,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C58" s="1">
         <v>0.94513888888888886</v>
@@ -2902,10 +2903,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C59" s="1">
         <v>0.7090277777777777</v>
@@ -2925,10 +2926,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C60" s="1">
         <v>0.93055555555555547</v>
@@ -2948,10 +2949,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
       </c>
       <c r="C61" s="1">
         <v>0.69305555555555554</v>
@@ -2971,10 +2972,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
       </c>
       <c r="C62" s="1">
         <v>0.43472222222222223</v>
@@ -2994,10 +2995,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
       </c>
       <c r="C63" s="1">
         <v>0.63194444444444442</v>
@@ -3017,10 +3018,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
         <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
       </c>
       <c r="C64" s="1">
         <v>0.55972222222222223</v>
@@ -3040,10 +3041,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="1">
         <v>0.71666666666666667</v>
@@ -3063,10 +3064,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
         <v>128</v>
-      </c>
-      <c r="B66" t="s">
-        <v>129</v>
       </c>
       <c r="C66" s="1">
         <v>0.73333333333333339</v>
@@ -3086,10 +3087,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
         <v>130</v>
-      </c>
-      <c r="B67" t="s">
-        <v>131</v>
       </c>
       <c r="C67" s="1">
         <v>0.53611111111111109</v>
@@ -3109,10 +3110,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
         <v>132</v>
-      </c>
-      <c r="B68" t="s">
-        <v>133</v>
       </c>
       <c r="C68" s="1">
         <v>0.99513888888888891</v>
@@ -3132,10 +3133,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
         <v>134</v>
-      </c>
-      <c r="B69" t="s">
-        <v>135</v>
       </c>
       <c r="C69" s="1">
         <v>0.79861111111111116</v>
@@ -3155,10 +3156,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
         <v>136</v>
-      </c>
-      <c r="B70" t="s">
-        <v>137</v>
       </c>
       <c r="C70" s="1">
         <v>0.97986111111111107</v>
@@ -3178,10 +3179,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C71" s="1">
         <v>0.4284722222222222</v>
@@ -3201,10 +3202,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C72" s="1">
         <v>0.50138888888888888</v>
@@ -3224,10 +3225,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C73" s="1">
         <v>0.9159722222222223</v>
@@ -3247,10 +3248,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C74" s="1">
         <v>0.70277777777777783</v>
@@ -3270,10 +3271,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C75" s="1">
         <v>0.76250000000000007</v>
@@ -3293,10 +3294,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C76" s="1">
         <v>0.69930555555555562</v>
@@ -3316,10 +3317,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="C77" s="1">
         <v>0.77916666666666667</v>
@@ -3339,10 +3340,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C78" s="1">
         <v>0.85138888888888886</v>
@@ -3362,10 +3363,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C79" s="1">
         <v>0.67847222222222225</v>
@@ -3385,10 +3386,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C80" s="1">
         <v>0.95416666666666661</v>
@@ -3408,10 +3409,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" t="s">
         <v>158</v>
-      </c>
-      <c r="B81" t="s">
-        <v>159</v>
       </c>
       <c r="C81" s="1">
         <v>0.88888888888888884</v>
@@ -3431,10 +3432,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
         <v>160</v>
-      </c>
-      <c r="B82" t="s">
-        <v>161</v>
       </c>
       <c r="C82" s="1">
         <v>0.78680555555555554</v>
@@ -3454,10 +3455,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" t="s">
         <v>162</v>
-      </c>
-      <c r="B83" t="s">
-        <v>163</v>
       </c>
       <c r="C83" s="1">
         <v>0.6118055555555556</v>
@@ -3477,10 +3478,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
         <v>164</v>
-      </c>
-      <c r="B84" t="s">
-        <v>165</v>
       </c>
       <c r="C84" s="1">
         <v>0.62222222222222223</v>
@@ -3500,10 +3501,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" t="s">
         <v>166</v>
-      </c>
-      <c r="B85" t="s">
-        <v>167</v>
       </c>
       <c r="C85" s="1">
         <v>0.84097222222222223</v>
@@ -3523,10 +3524,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
         <v>168</v>
-      </c>
-      <c r="B86" t="s">
-        <v>169</v>
       </c>
       <c r="C86" s="1">
         <v>0.8833333333333333</v>
@@ -3546,10 +3547,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
         <v>170</v>
-      </c>
-      <c r="B87" t="s">
-        <v>171</v>
       </c>
       <c r="C87" s="1">
         <v>0.70347222222222217</v>
@@ -3569,10 +3570,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" t="s">
         <v>172</v>
-      </c>
-      <c r="B88" t="s">
-        <v>173</v>
       </c>
       <c r="C88" s="1">
         <v>0.90069444444444446</v>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5DFFD-6FB8-2E45-AE97-F71DED501A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481DCF57-B4FD-A243-820F-321F8181336A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="3500" windowWidth="21040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="183">
   <si>
     <t>title</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>2018.11.04</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十五)--当知识图谱遇上个性化推荐</t>
   </si>
   <si>
     <t>2018.11.05</t>
@@ -583,6 +580,18 @@
   </si>
   <si>
     <t>推荐系统遇上深度学习(二十)--贝叶斯个性化排序(BPR)算法原理及实战</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了下没有代码实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想看</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十五)--当知识图谱遇上个性化推荐</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1550,10 +1559,10 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1584,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1773,7 +1782,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1819,7 +1828,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -1840,12 +1849,12 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1868,7 +1877,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1889,7 +1898,7 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1938,7 +1947,7 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1964,12 +1973,12 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
@@ -1990,7 +1999,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2041,7 +2050,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -2060,6 +2069,9 @@
       </c>
       <c r="G21">
         <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2130,6 +2142,9 @@
       <c r="G24">
         <v>16</v>
       </c>
+      <c r="H24" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
@@ -2156,10 +2171,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
       </c>
       <c r="C26" s="1">
         <v>0.53125</v>
@@ -2167,10 +2182,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
       </c>
       <c r="C27" s="1">
         <v>0.67083333333333339</v>
@@ -2190,10 +2205,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
       </c>
       <c r="C28" s="1">
         <v>0.57013888888888886</v>
@@ -2213,10 +2228,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
       </c>
       <c r="C29" s="1">
         <v>0.8354166666666667</v>
@@ -2236,10 +2251,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
       </c>
       <c r="C30" s="1">
         <v>0.75416666666666676</v>
@@ -2259,10 +2274,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C31" s="1">
         <v>0.61041666666666672</v>
@@ -2282,10 +2297,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C32" s="1">
         <v>0.5395833333333333</v>
@@ -2305,10 +2320,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C33" s="1">
         <v>0.9291666666666667</v>
@@ -2328,10 +2343,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C34" s="1">
         <v>0.99930555555555556</v>
@@ -2351,10 +2366,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C35" s="1">
         <v>0.71944444444444444</v>
@@ -2374,10 +2389,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C36" s="1">
         <v>0.64374999999999993</v>
@@ -2397,10 +2412,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C37" s="1">
         <v>0.9868055555555556</v>
@@ -2420,10 +2435,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C38" s="1">
         <v>0.96666666666666667</v>
@@ -2443,10 +2458,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C39" s="1">
         <v>0.88263888888888886</v>
@@ -2466,10 +2481,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C40" s="1">
         <v>0.69166666666666676</v>
@@ -2489,10 +2504,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
       </c>
       <c r="C41" s="1">
         <v>0.73472222222222217</v>
@@ -2512,10 +2527,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
       </c>
       <c r="C42" s="1">
         <v>0.80833333333333324</v>
@@ -2535,10 +2550,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
       </c>
       <c r="C43" s="1">
         <v>0.92222222222222217</v>
@@ -2558,10 +2573,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
         <v>84</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
       </c>
       <c r="C44" s="1">
         <v>0.73611111111111116</v>
@@ -2581,10 +2596,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
         <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
       </c>
       <c r="C45" s="1">
         <v>0.91736111111111107</v>
@@ -2604,10 +2619,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
         <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
       </c>
       <c r="C46" s="1">
         <v>0.53402777777777777</v>
@@ -2627,10 +2642,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
         <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>0.59861111111111109</v>
@@ -2650,10 +2665,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
         <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
       </c>
       <c r="C48" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2673,10 +2688,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
         <v>94</v>
-      </c>
-      <c r="B49" t="s">
-        <v>95</v>
       </c>
       <c r="C49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2696,10 +2711,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
         <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
       </c>
       <c r="C50" s="1">
         <v>0.68125000000000002</v>
@@ -2719,10 +2734,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C51" s="1">
         <v>0.75138888888888899</v>
@@ -2742,10 +2757,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C52" s="1">
         <v>0.44791666666666669</v>
@@ -2765,10 +2780,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C53" s="1">
         <v>0.91041666666666676</v>
@@ -2788,10 +2803,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C54" s="1">
         <v>0.72638888888888886</v>
@@ -2811,10 +2826,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C55" s="1">
         <v>0.97569444444444453</v>
@@ -2834,10 +2849,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C56" s="1">
         <v>0.97152777777777777</v>
@@ -2857,10 +2872,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C57" s="1">
         <v>0.90277777777777779</v>
@@ -2880,10 +2895,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C58" s="1">
         <v>0.94513888888888886</v>
@@ -2903,10 +2918,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="C59" s="1">
         <v>0.7090277777777777</v>
@@ -2926,10 +2941,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C60" s="1">
         <v>0.93055555555555547</v>
@@ -2949,10 +2964,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
         <v>118</v>
-      </c>
-      <c r="B61" t="s">
-        <v>119</v>
       </c>
       <c r="C61" s="1">
         <v>0.69305555555555554</v>
@@ -2972,10 +2987,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
         <v>120</v>
-      </c>
-      <c r="B62" t="s">
-        <v>121</v>
       </c>
       <c r="C62" s="1">
         <v>0.43472222222222223</v>
@@ -2995,10 +3010,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
         <v>122</v>
-      </c>
-      <c r="B63" t="s">
-        <v>123</v>
       </c>
       <c r="C63" s="1">
         <v>0.63194444444444442</v>
@@ -3018,10 +3033,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
         <v>124</v>
-      </c>
-      <c r="B64" t="s">
-        <v>125</v>
       </c>
       <c r="C64" s="1">
         <v>0.55972222222222223</v>
@@ -3041,10 +3056,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" s="1">
         <v>0.71666666666666667</v>
@@ -3064,10 +3079,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
         <v>127</v>
-      </c>
-      <c r="B66" t="s">
-        <v>128</v>
       </c>
       <c r="C66" s="1">
         <v>0.73333333333333339</v>
@@ -3087,10 +3102,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
         <v>129</v>
-      </c>
-      <c r="B67" t="s">
-        <v>130</v>
       </c>
       <c r="C67" s="1">
         <v>0.53611111111111109</v>
@@ -3110,10 +3125,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
         <v>131</v>
-      </c>
-      <c r="B68" t="s">
-        <v>132</v>
       </c>
       <c r="C68" s="1">
         <v>0.99513888888888891</v>
@@ -3133,10 +3148,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
         <v>133</v>
-      </c>
-      <c r="B69" t="s">
-        <v>134</v>
       </c>
       <c r="C69" s="1">
         <v>0.79861111111111116</v>
@@ -3156,10 +3171,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
         <v>135</v>
-      </c>
-      <c r="B70" t="s">
-        <v>136</v>
       </c>
       <c r="C70" s="1">
         <v>0.97986111111111107</v>
@@ -3179,10 +3194,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C71" s="1">
         <v>0.4284722222222222</v>
@@ -3202,10 +3217,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C72" s="1">
         <v>0.50138888888888888</v>
@@ -3225,10 +3240,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C73" s="1">
         <v>0.9159722222222223</v>
@@ -3248,10 +3263,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C74" s="1">
         <v>0.70277777777777783</v>
@@ -3271,10 +3286,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="C75" s="1">
         <v>0.76250000000000007</v>
@@ -3294,10 +3309,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="C76" s="1">
         <v>0.69930555555555562</v>
@@ -3317,10 +3332,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="C77" s="1">
         <v>0.77916666666666667</v>
@@ -3340,10 +3355,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="C78" s="1">
         <v>0.85138888888888886</v>
@@ -3363,10 +3378,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C79" s="1">
         <v>0.67847222222222225</v>
@@ -3386,10 +3401,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C80" s="1">
         <v>0.95416666666666661</v>
@@ -3409,10 +3424,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
         <v>157</v>
-      </c>
-      <c r="B81" t="s">
-        <v>158</v>
       </c>
       <c r="C81" s="1">
         <v>0.88888888888888884</v>
@@ -3432,10 +3447,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
         <v>159</v>
-      </c>
-      <c r="B82" t="s">
-        <v>160</v>
       </c>
       <c r="C82" s="1">
         <v>0.78680555555555554</v>
@@ -3455,10 +3470,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
         <v>161</v>
-      </c>
-      <c r="B83" t="s">
-        <v>162</v>
       </c>
       <c r="C83" s="1">
         <v>0.6118055555555556</v>
@@ -3478,10 +3493,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
         <v>163</v>
-      </c>
-      <c r="B84" t="s">
-        <v>164</v>
       </c>
       <c r="C84" s="1">
         <v>0.62222222222222223</v>
@@ -3501,10 +3516,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" t="s">
         <v>165</v>
-      </c>
-      <c r="B85" t="s">
-        <v>166</v>
       </c>
       <c r="C85" s="1">
         <v>0.84097222222222223</v>
@@ -3524,10 +3539,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" t="s">
         <v>167</v>
-      </c>
-      <c r="B86" t="s">
-        <v>168</v>
       </c>
       <c r="C86" s="1">
         <v>0.8833333333333333</v>
@@ -3547,10 +3562,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" t="s">
         <v>169</v>
-      </c>
-      <c r="B87" t="s">
-        <v>170</v>
       </c>
       <c r="C87" s="1">
         <v>0.70347222222222217</v>
@@ -3570,10 +3585,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" t="s">
         <v>171</v>
-      </c>
-      <c r="B88" t="s">
-        <v>172</v>
       </c>
       <c r="C88" s="1">
         <v>0.90069444444444446</v>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481DCF57-B4FD-A243-820F-321F8181336A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A57B6CE-531F-1148-9E05-362730EF75BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="3500" windowWidth="21040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,15 +155,9 @@
     <t>2018.06.29</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(二十一)--阶段性回顾</t>
-  </si>
-  <si>
     <t>2018.07.18</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(二十二)--DeepFM升级版XDeepFM模型强势来袭！</t>
-  </si>
-  <si>
     <t>2018.09.22</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
   </si>
   <si>
     <t>2018.09.25</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十四)--深度兴趣进化网络DIEN原理及实战！</t>
   </si>
   <si>
     <t>2018.11.04</t>
@@ -592,6 +583,18 @@
   </si>
   <si>
     <t>推荐系统遇上深度学习(二十五)--当知识图谱遇上个性化推荐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十一)--阶段性回顾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十二)--DeepFM升级版XDeepFM模型强势来袭！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十四)--深度兴趣进化网络DIEN原理及实战！</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1559,10 +1562,10 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1593,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1782,7 +1785,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1828,7 +1831,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -1849,12 +1852,12 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1898,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1947,7 +1950,7 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1973,12 +1976,12 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
@@ -1999,7 +2002,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2050,7 +2053,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -2071,15 +2074,15 @@
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
       </c>
       <c r="C22" s="1">
         <v>2.0833333333333333E-3</v>
@@ -2099,10 +2102,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
         <v>0.59722222222222221</v>
@@ -2122,10 +2125,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1">
         <v>0.90416666666666667</v>
@@ -2143,15 +2146,15 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1">
         <v>0.90208333333333324</v>
@@ -2171,10 +2174,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1">
         <v>0.53125</v>
@@ -2182,10 +2185,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1">
         <v>0.67083333333333339</v>
@@ -2205,10 +2208,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1">
         <v>0.57013888888888886</v>
@@ -2228,10 +2231,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1">
         <v>0.8354166666666667</v>
@@ -2251,10 +2254,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1">
         <v>0.75416666666666676</v>
@@ -2274,10 +2277,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1">
         <v>0.61041666666666672</v>
@@ -2297,10 +2300,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1">
         <v>0.5395833333333333</v>
@@ -2320,10 +2323,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1">
         <v>0.9291666666666667</v>
@@ -2343,10 +2346,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1">
         <v>0.99930555555555556</v>
@@ -2366,10 +2369,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1">
         <v>0.71944444444444444</v>
@@ -2389,10 +2392,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1">
         <v>0.64374999999999993</v>
@@ -2412,10 +2415,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1">
         <v>0.9868055555555556</v>
@@ -2435,10 +2438,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1">
         <v>0.96666666666666667</v>
@@ -2458,10 +2461,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C39" s="1">
         <v>0.88263888888888886</v>
@@ -2481,10 +2484,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C40" s="1">
         <v>0.69166666666666676</v>
@@ -2504,10 +2507,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1">
         <v>0.73472222222222217</v>
@@ -2527,10 +2530,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1">
         <v>0.80833333333333324</v>
@@ -2550,10 +2553,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C43" s="1">
         <v>0.92222222222222217</v>
@@ -2573,10 +2576,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1">
         <v>0.73611111111111116</v>
@@ -2596,10 +2599,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1">
         <v>0.91736111111111107</v>
@@ -2619,10 +2622,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C46" s="1">
         <v>0.53402777777777777</v>
@@ -2642,10 +2645,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C47" s="1">
         <v>0.59861111111111109</v>
@@ -2665,10 +2668,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C48" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2688,10 +2691,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2711,10 +2714,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1">
         <v>0.68125000000000002</v>
@@ -2734,10 +2737,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C51" s="1">
         <v>0.75138888888888899</v>
@@ -2757,10 +2760,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C52" s="1">
         <v>0.44791666666666669</v>
@@ -2780,10 +2783,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C53" s="1">
         <v>0.91041666666666676</v>
@@ -2803,10 +2806,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C54" s="1">
         <v>0.72638888888888886</v>
@@ -2826,10 +2829,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C55" s="1">
         <v>0.97569444444444453</v>
@@ -2849,10 +2852,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C56" s="1">
         <v>0.97152777777777777</v>
@@ -2872,10 +2875,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C57" s="1">
         <v>0.90277777777777779</v>
@@ -2895,10 +2898,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C58" s="1">
         <v>0.94513888888888886</v>
@@ -2918,10 +2921,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C59" s="1">
         <v>0.7090277777777777</v>
@@ -2941,10 +2944,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C60" s="1">
         <v>0.93055555555555547</v>
@@ -2964,10 +2967,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C61" s="1">
         <v>0.69305555555555554</v>
@@ -2987,10 +2990,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1">
         <v>0.43472222222222223</v>
@@ -3010,10 +3013,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C63" s="1">
         <v>0.63194444444444442</v>
@@ -3033,10 +3036,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C64" s="1">
         <v>0.55972222222222223</v>
@@ -3056,10 +3059,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C65" s="1">
         <v>0.71666666666666667</v>
@@ -3079,10 +3082,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1">
         <v>0.73333333333333339</v>
@@ -3102,10 +3105,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C67" s="1">
         <v>0.53611111111111109</v>
@@ -3125,10 +3128,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C68" s="1">
         <v>0.99513888888888891</v>
@@ -3148,10 +3151,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C69" s="1">
         <v>0.79861111111111116</v>
@@ -3171,10 +3174,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C70" s="1">
         <v>0.97986111111111107</v>
@@ -3194,10 +3197,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C71" s="1">
         <v>0.4284722222222222</v>
@@ -3217,10 +3220,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C72" s="1">
         <v>0.50138888888888888</v>
@@ -3240,10 +3243,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C73" s="1">
         <v>0.9159722222222223</v>
@@ -3263,10 +3266,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C74" s="1">
         <v>0.70277777777777783</v>
@@ -3286,10 +3289,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1">
         <v>0.76250000000000007</v>
@@ -3309,10 +3312,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C76" s="1">
         <v>0.69930555555555562</v>
@@ -3332,10 +3335,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C77" s="1">
         <v>0.77916666666666667</v>
@@ -3355,10 +3358,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C78" s="1">
         <v>0.85138888888888886</v>
@@ -3378,10 +3381,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C79" s="1">
         <v>0.67847222222222225</v>
@@ -3401,10 +3404,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C80" s="1">
         <v>0.95416666666666661</v>
@@ -3424,10 +3427,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C81" s="1">
         <v>0.88888888888888884</v>
@@ -3447,10 +3450,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C82" s="1">
         <v>0.78680555555555554</v>
@@ -3470,10 +3473,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C83" s="1">
         <v>0.6118055555555556</v>
@@ -3493,10 +3496,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C84" s="1">
         <v>0.62222222222222223</v>
@@ -3516,10 +3519,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C85" s="1">
         <v>0.84097222222222223</v>
@@ -3539,10 +3542,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C86" s="1">
         <v>0.8833333333333333</v>
@@ -3562,10 +3565,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C87" s="1">
         <v>0.70347222222222217</v>
@@ -3585,10 +3588,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C88" s="1">
         <v>0.90069444444444446</v>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A57B6CE-531F-1148-9E05-362730EF75BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70433EFD-C966-7544-8AFF-7925D3807F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="3500" windowWidth="21040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18340" yWindow="5140" windowWidth="17500" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="184">
   <si>
     <t>title</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>2018.11.08</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(二十七)--知识图谱与推荐系统结合之RippleNet模型原理及实现</t>
   </si>
   <si>
     <t>2018.11.12</t>
@@ -595,6 +592,14 @@
   </si>
   <si>
     <t>推荐系统遇上深度学习(二十四)--深度兴趣进化网络DIEN原理及实战！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未看代码可以看</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十七)--知识图谱与推荐系统结合之RippleNet模型原理及实现</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1194,7 +1199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,6 +1207,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,10 +1570,10 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1596,7 +1604,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1785,7 +1793,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1831,7 +1839,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -1852,12 +1860,12 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1880,7 +1888,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1901,7 +1909,7 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1950,7 +1958,7 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1976,12 +1984,12 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
@@ -2002,7 +2010,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2053,7 +2061,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -2074,12 +2082,12 @@
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -2102,7 +2110,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -2121,6 +2129,9 @@
       </c>
       <c r="G23">
         <v>28</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2146,12 +2157,12 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
@@ -2171,10 +2182,13 @@
       <c r="G25">
         <v>28</v>
       </c>
+      <c r="H25" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
@@ -2208,10 +2222,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s">
         <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
       </c>
       <c r="C28" s="1">
         <v>0.57013888888888886</v>
@@ -2231,10 +2245,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
         <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
       </c>
       <c r="C29" s="1">
         <v>0.8354166666666667</v>
@@ -2254,10 +2268,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
       </c>
       <c r="C30" s="1">
         <v>0.75416666666666676</v>
@@ -2277,10 +2291,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C31" s="1">
         <v>0.61041666666666672</v>
@@ -2300,10 +2314,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C32" s="1">
         <v>0.5395833333333333</v>
@@ -2323,10 +2337,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C33" s="1">
         <v>0.9291666666666667</v>
@@ -2346,10 +2360,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C34" s="1">
         <v>0.99930555555555556</v>
@@ -2369,10 +2383,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C35" s="1">
         <v>0.71944444444444444</v>
@@ -2392,10 +2406,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C36" s="1">
         <v>0.64374999999999993</v>
@@ -2415,10 +2429,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C37" s="1">
         <v>0.9868055555555556</v>
@@ -2438,10 +2452,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C38" s="1">
         <v>0.96666666666666667</v>
@@ -2461,10 +2475,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C39" s="1">
         <v>0.88263888888888886</v>
@@ -2484,10 +2498,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C40" s="1">
         <v>0.69166666666666676</v>
@@ -2507,10 +2521,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
         <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
       </c>
       <c r="C41" s="1">
         <v>0.73472222222222217</v>
@@ -2530,10 +2544,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
         <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
       </c>
       <c r="C42" s="1">
         <v>0.80833333333333324</v>
@@ -2553,10 +2567,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
         <v>78</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
       </c>
       <c r="C43" s="1">
         <v>0.92222222222222217</v>
@@ -2576,10 +2590,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
         <v>80</v>
-      </c>
-      <c r="B44" t="s">
-        <v>81</v>
       </c>
       <c r="C44" s="1">
         <v>0.73611111111111116</v>
@@ -2599,10 +2613,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
         <v>82</v>
-      </c>
-      <c r="B45" t="s">
-        <v>83</v>
       </c>
       <c r="C45" s="1">
         <v>0.91736111111111107</v>
@@ -2622,10 +2636,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
         <v>84</v>
-      </c>
-      <c r="B46" t="s">
-        <v>85</v>
       </c>
       <c r="C46" s="1">
         <v>0.53402777777777777</v>
@@ -2645,10 +2659,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" t="s">
         <v>86</v>
-      </c>
-      <c r="B47" t="s">
-        <v>87</v>
       </c>
       <c r="C47" s="1">
         <v>0.59861111111111109</v>
@@ -2668,10 +2682,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
         <v>88</v>
-      </c>
-      <c r="B48" t="s">
-        <v>89</v>
       </c>
       <c r="C48" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2691,10 +2705,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
         <v>90</v>
-      </c>
-      <c r="B49" t="s">
-        <v>91</v>
       </c>
       <c r="C49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2714,10 +2728,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
         <v>92</v>
-      </c>
-      <c r="B50" t="s">
-        <v>93</v>
       </c>
       <c r="C50" s="1">
         <v>0.68125000000000002</v>
@@ -2737,10 +2751,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="C51" s="1">
         <v>0.75138888888888899</v>
@@ -2760,10 +2774,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C52" s="1">
         <v>0.44791666666666669</v>
@@ -2783,10 +2797,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C53" s="1">
         <v>0.91041666666666676</v>
@@ -2806,10 +2820,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C54" s="1">
         <v>0.72638888888888886</v>
@@ -2829,10 +2843,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C55" s="1">
         <v>0.97569444444444453</v>
@@ -2852,10 +2866,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C56" s="1">
         <v>0.97152777777777777</v>
@@ -2875,10 +2889,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C57" s="1">
         <v>0.90277777777777779</v>
@@ -2898,10 +2912,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C58" s="1">
         <v>0.94513888888888886</v>
@@ -2921,10 +2935,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C59" s="1">
         <v>0.7090277777777777</v>
@@ -2944,10 +2958,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C60" s="1">
         <v>0.93055555555555547</v>
@@ -2967,10 +2981,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
         <v>114</v>
-      </c>
-      <c r="B61" t="s">
-        <v>115</v>
       </c>
       <c r="C61" s="1">
         <v>0.69305555555555554</v>
@@ -2990,10 +3004,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" t="s">
         <v>116</v>
-      </c>
-      <c r="B62" t="s">
-        <v>117</v>
       </c>
       <c r="C62" s="1">
         <v>0.43472222222222223</v>
@@ -3013,10 +3027,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
         <v>118</v>
-      </c>
-      <c r="B63" t="s">
-        <v>119</v>
       </c>
       <c r="C63" s="1">
         <v>0.63194444444444442</v>
@@ -3036,10 +3050,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
         <v>120</v>
-      </c>
-      <c r="B64" t="s">
-        <v>121</v>
       </c>
       <c r="C64" s="1">
         <v>0.55972222222222223</v>
@@ -3059,10 +3073,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="1">
         <v>0.71666666666666667</v>
@@ -3082,10 +3096,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" t="s">
         <v>123</v>
-      </c>
-      <c r="B66" t="s">
-        <v>124</v>
       </c>
       <c r="C66" s="1">
         <v>0.73333333333333339</v>
@@ -3105,10 +3119,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" t="s">
         <v>125</v>
-      </c>
-      <c r="B67" t="s">
-        <v>126</v>
       </c>
       <c r="C67" s="1">
         <v>0.53611111111111109</v>
@@ -3128,10 +3142,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
         <v>127</v>
-      </c>
-      <c r="B68" t="s">
-        <v>128</v>
       </c>
       <c r="C68" s="1">
         <v>0.99513888888888891</v>
@@ -3151,10 +3165,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
         <v>129</v>
-      </c>
-      <c r="B69" t="s">
-        <v>130</v>
       </c>
       <c r="C69" s="1">
         <v>0.79861111111111116</v>
@@ -3174,10 +3188,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
         <v>131</v>
-      </c>
-      <c r="B70" t="s">
-        <v>132</v>
       </c>
       <c r="C70" s="1">
         <v>0.97986111111111107</v>
@@ -3197,10 +3211,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C71" s="1">
         <v>0.4284722222222222</v>
@@ -3220,10 +3234,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C72" s="1">
         <v>0.50138888888888888</v>
@@ -3243,10 +3257,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C73" s="1">
         <v>0.9159722222222223</v>
@@ -3266,10 +3280,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C74" s="1">
         <v>0.70277777777777783</v>
@@ -3289,10 +3303,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C75" s="1">
         <v>0.76250000000000007</v>
@@ -3312,10 +3326,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C76" s="1">
         <v>0.69930555555555562</v>
@@ -3335,10 +3349,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="C77" s="1">
         <v>0.77916666666666667</v>
@@ -3358,10 +3372,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="C78" s="1">
         <v>0.85138888888888886</v>
@@ -3381,10 +3395,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="C79" s="1">
         <v>0.67847222222222225</v>
@@ -3404,10 +3418,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="C80" s="1">
         <v>0.95416666666666661</v>
@@ -3427,10 +3441,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" t="s">
         <v>153</v>
-      </c>
-      <c r="B81" t="s">
-        <v>154</v>
       </c>
       <c r="C81" s="1">
         <v>0.88888888888888884</v>
@@ -3450,10 +3464,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" t="s">
         <v>155</v>
-      </c>
-      <c r="B82" t="s">
-        <v>156</v>
       </c>
       <c r="C82" s="1">
         <v>0.78680555555555554</v>
@@ -3473,10 +3487,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" t="s">
         <v>157</v>
-      </c>
-      <c r="B83" t="s">
-        <v>158</v>
       </c>
       <c r="C83" s="1">
         <v>0.6118055555555556</v>
@@ -3496,10 +3510,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" t="s">
         <v>159</v>
-      </c>
-      <c r="B84" t="s">
-        <v>160</v>
       </c>
       <c r="C84" s="1">
         <v>0.62222222222222223</v>
@@ -3519,10 +3533,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" t="s">
         <v>161</v>
-      </c>
-      <c r="B85" t="s">
-        <v>162</v>
       </c>
       <c r="C85" s="1">
         <v>0.84097222222222223</v>
@@ -3542,10 +3556,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" t="s">
         <v>163</v>
-      </c>
-      <c r="B86" t="s">
-        <v>164</v>
       </c>
       <c r="C86" s="1">
         <v>0.8833333333333333</v>
@@ -3565,10 +3579,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" t="s">
         <v>165</v>
-      </c>
-      <c r="B87" t="s">
-        <v>166</v>
       </c>
       <c r="C87" s="1">
         <v>0.70347222222222217</v>
@@ -3588,10 +3602,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" t="s">
         <v>167</v>
-      </c>
-      <c r="B88" t="s">
-        <v>168</v>
       </c>
       <c r="C88" s="1">
         <v>0.90069444444444446</v>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70433EFD-C966-7544-8AFF-7925D3807F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12E22A-F156-4445-AFDF-15C85414EACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18340" yWindow="5140" windowWidth="17500" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10340" yWindow="4280" windowWidth="20000" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="187">
   <si>
     <t>title</t>
   </si>
@@ -188,9 +188,6 @@
     <t>2018.11.19</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(二十九)--协同记忆网络理论及实践</t>
-  </si>
-  <si>
     <t>2019.01.15</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>2019.02.15</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(三十一)--使用自注意力机制进行物品推荐</t>
-  </si>
-  <si>
     <t>2019.02.27</t>
   </si>
   <si>
@@ -212,13 +206,7 @@
     <t>2019.03.01</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(三十三)--Neural Attentive Item Similarity Model</t>
-  </si>
-  <si>
     <t>2019.03.06</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十四)--YouTube深度学习推荐系统</t>
   </si>
   <si>
     <t>2019.03.09</t>
@@ -600,6 +588,34 @@
   </si>
   <si>
     <t>推荐系统遇上深度学习(二十七)--知识图谱与推荐系统结合之RippleNet模型原理及实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(二十九)--协同记忆网络理论及实践</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十一)--使用自注意力机制进行物品推荐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十三)--Neural Attentive Item Similarity Model</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十四)--YouTube深度学习推荐系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning for List-wise Recommendations</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recommendations with Negative Feedback via Pairwise Deep Reinforcement Learning</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没细看--需要细看</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1567,21 +1583,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="74.1640625" customWidth="1"/>
+    <col min="1" max="1" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1604,10 +1620,10 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1646,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1653,7 +1669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1676,7 +1692,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1699,7 +1715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1722,7 +1738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1768,7 +1784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1791,9 +1807,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1814,7 +1830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1837,9 +1853,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -1860,12 +1876,12 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1886,9 +1902,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1909,10 +1925,10 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1935,7 +1951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1958,7 +1974,10 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="I16" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1984,12 +2003,12 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
@@ -2010,7 +2029,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2061,7 +2080,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -2082,12 +2101,12 @@
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -2110,7 +2129,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -2131,7 +2150,7 @@
         <v>28</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2157,12 +2176,12 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
@@ -2183,18 +2202,21 @@
         <v>28</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="1">
         <v>0.53125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2219,10 +2241,13 @@
       <c r="G27">
         <v>55</v>
       </c>
+      <c r="H27" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
@@ -2265,13 +2290,16 @@
       <c r="G29">
         <v>19</v>
       </c>
+      <c r="H29" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
         <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
       </c>
       <c r="C30" s="1">
         <v>0.75416666666666676</v>
@@ -2288,13 +2316,16 @@
       <c r="G30">
         <v>28</v>
       </c>
+      <c r="H30" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C31" s="1">
         <v>0.61041666666666672</v>
@@ -2311,13 +2342,16 @@
       <c r="G31">
         <v>23</v>
       </c>
+      <c r="H31" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1">
         <v>0.5395833333333333</v>
@@ -2334,13 +2368,16 @@
       <c r="G32">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1">
         <v>0.9291666666666667</v>
@@ -2357,13 +2394,16 @@
       <c r="G33">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1">
         <v>0.99930555555555556</v>
@@ -2380,13 +2420,16 @@
       <c r="G34">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1">
         <v>0.71944444444444444</v>
@@ -2403,13 +2446,16 @@
       <c r="G35">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1">
         <v>0.64374999999999993</v>
@@ -2426,13 +2472,16 @@
       <c r="G36">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1">
         <v>0.9868055555555556</v>
@@ -2450,12 +2499,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1">
         <v>0.96666666666666667</v>
@@ -2473,12 +2522,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1">
         <v>0.88263888888888886</v>
@@ -2496,12 +2545,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C40" s="1">
         <v>0.69166666666666676</v>
@@ -2519,12 +2568,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1">
         <v>0.73472222222222217</v>
@@ -2542,12 +2591,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1">
         <v>0.80833333333333324</v>
@@ -2565,12 +2614,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C43" s="1">
         <v>0.92222222222222217</v>
@@ -2588,12 +2637,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C44" s="1">
         <v>0.73611111111111116</v>
@@ -2611,12 +2660,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1">
         <v>0.91736111111111107</v>
@@ -2634,12 +2683,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C46" s="1">
         <v>0.53402777777777777</v>
@@ -2657,12 +2706,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1">
         <v>0.59861111111111109</v>
@@ -2680,12 +2729,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2705,10 +2754,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2728,10 +2777,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C50" s="1">
         <v>0.68125000000000002</v>
@@ -2751,10 +2800,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1">
         <v>0.75138888888888899</v>
@@ -2774,10 +2823,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C52" s="1">
         <v>0.44791666666666669</v>
@@ -2797,10 +2846,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C53" s="1">
         <v>0.91041666666666676</v>
@@ -2820,10 +2869,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C54" s="1">
         <v>0.72638888888888886</v>
@@ -2843,10 +2892,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1">
         <v>0.97569444444444453</v>
@@ -2866,10 +2915,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C56" s="1">
         <v>0.97152777777777777</v>
@@ -2889,10 +2938,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C57" s="1">
         <v>0.90277777777777779</v>
@@ -2912,10 +2961,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C58" s="1">
         <v>0.94513888888888886</v>
@@ -2935,10 +2984,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C59" s="1">
         <v>0.7090277777777777</v>
@@ -2958,10 +3007,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C60" s="1">
         <v>0.93055555555555547</v>
@@ -2981,10 +3030,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C61" s="1">
         <v>0.69305555555555554</v>
@@ -3004,10 +3053,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C62" s="1">
         <v>0.43472222222222223</v>
@@ -3027,10 +3076,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C63" s="1">
         <v>0.63194444444444442</v>
@@ -3050,10 +3099,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C64" s="1">
         <v>0.55972222222222223</v>
@@ -3073,10 +3122,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C65" s="1">
         <v>0.71666666666666667</v>
@@ -3096,10 +3145,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C66" s="1">
         <v>0.73333333333333339</v>
@@ -3119,10 +3168,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C67" s="1">
         <v>0.53611111111111109</v>
@@ -3142,10 +3191,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C68" s="1">
         <v>0.99513888888888891</v>
@@ -3165,10 +3214,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C69" s="1">
         <v>0.79861111111111116</v>
@@ -3188,10 +3237,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C70" s="1">
         <v>0.97986111111111107</v>
@@ -3211,10 +3260,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C71" s="1">
         <v>0.4284722222222222</v>
@@ -3234,10 +3283,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C72" s="1">
         <v>0.50138888888888888</v>
@@ -3257,10 +3306,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C73" s="1">
         <v>0.9159722222222223</v>
@@ -3280,10 +3329,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C74" s="1">
         <v>0.70277777777777783</v>
@@ -3303,10 +3352,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C75" s="1">
         <v>0.76250000000000007</v>
@@ -3326,10 +3375,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C76" s="1">
         <v>0.69930555555555562</v>
@@ -3349,10 +3398,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C77" s="1">
         <v>0.77916666666666667</v>
@@ -3372,10 +3421,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C78" s="1">
         <v>0.85138888888888886</v>
@@ -3395,10 +3444,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C79" s="1">
         <v>0.67847222222222225</v>
@@ -3418,10 +3467,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C80" s="1">
         <v>0.95416666666666661</v>
@@ -3441,10 +3490,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C81" s="1">
         <v>0.88888888888888884</v>
@@ -3464,10 +3513,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C82" s="1">
         <v>0.78680555555555554</v>
@@ -3487,10 +3536,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C83" s="1">
         <v>0.6118055555555556</v>
@@ -3510,10 +3559,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C84" s="1">
         <v>0.62222222222222223</v>
@@ -3533,10 +3582,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C85" s="1">
         <v>0.84097222222222223</v>
@@ -3556,10 +3605,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C86" s="1">
         <v>0.8833333333333333</v>
@@ -3579,10 +3628,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C87" s="1">
         <v>0.70347222222222217</v>
@@ -3602,10 +3651,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C88" s="1">
         <v>0.90069444444444446</v>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12E22A-F156-4445-AFDF-15C85414EACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F584EB5-233C-FB49-ADD1-2681F88FC15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10340" yWindow="4280" windowWidth="20000" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="196">
   <si>
     <t>title</t>
   </si>
@@ -616,6 +616,34 @@
   </si>
   <si>
     <t>没细看--需要细看</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十六)-[第四范式]考虑域内信息和多模块非线性融合的NON模型</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十五)-[雅虎]点击率预估中的软频率控制</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十四)-[华为]一种实用的增量式深度CTR模型训练方法</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十三)-[谷歌]提升谷歌网盘推荐质量的工业经验</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十一)-[阿里]跨域点击率预估混合兴趣模型MiNet</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十)-[阿里]计算成本感知的轻量级预排序系统COLD</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十九)-推荐系统中的反馈循环</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十八)-[微信]充分利用显式&amp;隐式反馈的深度反馈网络</t>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(九十二)-[腾讯]RecSys2020最佳长论文-多任务学习模型PLE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1583,18 +1611,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="85" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3670,6 +3699,213 @@
       </c>
       <c r="G88">
         <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89">
+        <v>8.01</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.81458333333333333</v>
+      </c>
+      <c r="D89">
+        <v>1.4</v>
+      </c>
+      <c r="E89">
+        <v>885</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90">
+        <v>8.02</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.92847222222222225</v>
+      </c>
+      <c r="D90">
+        <v>0.2</v>
+      </c>
+      <c r="E90">
+        <v>597</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91">
+        <v>8.07</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D91">
+        <v>0.3</v>
+      </c>
+      <c r="E91">
+        <v>724</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92">
+        <v>8.23</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="D92">
+        <v>0.2</v>
+      </c>
+      <c r="E92">
+        <v>809</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93">
+        <v>10.01</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="D93">
+        <v>0.4</v>
+      </c>
+      <c r="E93">
+        <v>571</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94">
+        <v>10.02</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.87083333333333324</v>
+      </c>
+      <c r="D94">
+        <v>0.2</v>
+      </c>
+      <c r="E94">
+        <v>151</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="D95">
+        <v>0.2</v>
+      </c>
+      <c r="E95">
+        <v>200</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D96">
+        <v>0.2</v>
+      </c>
+      <c r="E96">
+        <v>231</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97">
+        <v>10.08</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="D97">
+        <v>0.2</v>
+      </c>
+      <c r="E97">
+        <v>247</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F584EB5-233C-FB49-ADD1-2681F88FC15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A23C4DE-26DC-B647-B759-7C5D0FBE83DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10340" yWindow="4280" windowWidth="20000" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="199">
   <si>
     <t>title</t>
   </si>
@@ -224,19 +224,10 @@
     <t>2019.04.04</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(三十七)--基于多任务学习的可解释性推荐系统</t>
-  </si>
-  <si>
     <t>2019.04.06</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(三十八)--CFGAN:一种基于GAN的协同过滤推荐框架</t>
-  </si>
-  <si>
     <t>2019.04.13</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(三十九)-推荐系统中召回策略演进！</t>
   </si>
   <si>
     <t>2019.04.14</t>
@@ -644,6 +635,30 @@
   </si>
   <si>
     <t>推荐系统遇上深度学习(九十二)-[腾讯]RecSys2020最佳长论文-多任务学习模型PLE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十七)--基于多任务学习的可解释性推荐系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看需要强化学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十九)-推荐系统中召回策略演进！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看代码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十八)--CFGAN:一种基于GAN的协同过滤推荐框架</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看需要对抗网络</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1614,10 +1629,10 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A94" sqref="A94"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1649,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1838,7 +1853,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1884,7 +1899,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -1905,12 +1920,12 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1933,7 +1948,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1954,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2003,10 +2018,10 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2032,12 +2047,12 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
@@ -2058,7 +2073,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2109,7 +2124,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -2130,12 +2145,12 @@
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -2158,7 +2173,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -2179,7 +2194,7 @@
         <v>28</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2205,12 +2220,12 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
@@ -2231,12 +2246,12 @@
         <v>28</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
@@ -2245,7 +2260,7 @@
         <v>0.53125</v>
       </c>
       <c r="H26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2271,12 +2286,12 @@
         <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
@@ -2320,12 +2335,12 @@
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
         <v>51</v>
@@ -2346,7 +2361,7 @@
         <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2372,12 +2387,12 @@
         <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>54</v>
@@ -2398,7 +2413,7 @@
         <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2424,12 +2439,12 @@
         <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>57</v>
@@ -2450,12 +2465,12 @@
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>58</v>
@@ -2476,7 +2491,7 @@
         <v>53</v>
       </c>
       <c r="H35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2502,7 +2517,7 @@
         <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2527,13 +2542,16 @@
       <c r="G37">
         <v>21</v>
       </c>
+      <c r="H37" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C38" s="1">
         <v>0.96666666666666667</v>
@@ -2550,13 +2568,16 @@
       <c r="G38">
         <v>29</v>
       </c>
+      <c r="H38" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1">
         <v>0.88263888888888886</v>
@@ -2573,13 +2594,16 @@
       <c r="G39">
         <v>15</v>
       </c>
+      <c r="H39" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C40" s="1">
         <v>0.69166666666666676</v>
@@ -2599,10 +2623,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C41" s="1">
         <v>0.73472222222222217</v>
@@ -2622,10 +2646,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1">
         <v>0.80833333333333324</v>
@@ -2645,10 +2669,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C43" s="1">
         <v>0.92222222222222217</v>
@@ -2668,10 +2692,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="1">
         <v>0.73611111111111116</v>
@@ -2691,10 +2715,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="1">
         <v>0.91736111111111107</v>
@@ -2714,10 +2738,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1">
         <v>0.53402777777777777</v>
@@ -2737,10 +2761,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" s="1">
         <v>0.59861111111111109</v>
@@ -2760,10 +2784,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C48" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2783,10 +2807,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2806,10 +2830,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C50" s="1">
         <v>0.68125000000000002</v>
@@ -2829,10 +2853,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1">
         <v>0.75138888888888899</v>
@@ -2852,10 +2876,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C52" s="1">
         <v>0.44791666666666669</v>
@@ -2875,10 +2899,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1">
         <v>0.91041666666666676</v>
@@ -2898,10 +2922,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C54" s="1">
         <v>0.72638888888888886</v>
@@ -2921,10 +2945,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C55" s="1">
         <v>0.97569444444444453</v>
@@ -2944,10 +2968,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C56" s="1">
         <v>0.97152777777777777</v>
@@ -2967,10 +2991,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C57" s="1">
         <v>0.90277777777777779</v>
@@ -2990,10 +3014,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C58" s="1">
         <v>0.94513888888888886</v>
@@ -3013,10 +3037,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C59" s="1">
         <v>0.7090277777777777</v>
@@ -3036,10 +3060,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C60" s="1">
         <v>0.93055555555555547</v>
@@ -3059,10 +3083,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C61" s="1">
         <v>0.69305555555555554</v>
@@ -3082,10 +3106,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C62" s="1">
         <v>0.43472222222222223</v>
@@ -3105,10 +3129,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C63" s="1">
         <v>0.63194444444444442</v>
@@ -3128,10 +3152,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C64" s="1">
         <v>0.55972222222222223</v>
@@ -3151,10 +3175,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C65" s="1">
         <v>0.71666666666666667</v>
@@ -3174,10 +3198,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C66" s="1">
         <v>0.73333333333333339</v>
@@ -3197,10 +3221,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C67" s="1">
         <v>0.53611111111111109</v>
@@ -3220,10 +3244,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C68" s="1">
         <v>0.99513888888888891</v>
@@ -3243,10 +3267,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C69" s="1">
         <v>0.79861111111111116</v>
@@ -3266,10 +3290,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C70" s="1">
         <v>0.97986111111111107</v>
@@ -3289,10 +3313,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C71" s="1">
         <v>0.4284722222222222</v>
@@ -3312,10 +3336,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C72" s="1">
         <v>0.50138888888888888</v>
@@ -3335,10 +3359,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C73" s="1">
         <v>0.9159722222222223</v>
@@ -3358,10 +3382,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C74" s="1">
         <v>0.70277777777777783</v>
@@ -3381,10 +3405,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C75" s="1">
         <v>0.76250000000000007</v>
@@ -3404,10 +3428,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C76" s="1">
         <v>0.69930555555555562</v>
@@ -3427,10 +3451,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C77" s="1">
         <v>0.77916666666666667</v>
@@ -3450,10 +3474,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C78" s="1">
         <v>0.85138888888888886</v>
@@ -3473,10 +3497,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C79" s="1">
         <v>0.67847222222222225</v>
@@ -3496,10 +3520,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C80" s="1">
         <v>0.95416666666666661</v>
@@ -3519,10 +3543,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C81" s="1">
         <v>0.88888888888888884</v>
@@ -3542,10 +3566,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C82" s="1">
         <v>0.78680555555555554</v>
@@ -3565,10 +3589,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C83" s="1">
         <v>0.6118055555555556</v>
@@ -3588,10 +3612,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C84" s="1">
         <v>0.62222222222222223</v>
@@ -3611,10 +3635,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C85" s="1">
         <v>0.84097222222222223</v>
@@ -3634,10 +3658,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C86" s="1">
         <v>0.8833333333333333</v>
@@ -3657,10 +3681,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C87" s="1">
         <v>0.70347222222222217</v>
@@ -3680,10 +3704,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C88" s="1">
         <v>0.90069444444444446</v>
@@ -3703,7 +3727,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B89">
         <v>8.01</v>
@@ -3726,7 +3750,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B90">
         <v>8.02</v>
@@ -3749,7 +3773,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B91">
         <v>8.07</v>
@@ -3772,7 +3796,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B92">
         <v>8.23</v>
@@ -3795,7 +3819,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B93">
         <v>10.01</v>
@@ -3818,7 +3842,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B94">
         <v>10.02</v>
@@ -3841,7 +3865,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B95">
         <v>10.029999999999999</v>
@@ -3864,7 +3888,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B96">
         <v>10.050000000000001</v>
@@ -3887,7 +3911,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B97">
         <v>10.08</v>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A23C4DE-26DC-B647-B759-7C5D0FBE83DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2263AB1-027C-9046-B15B-503A022F1E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10340" yWindow="4280" windowWidth="20000" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="200">
   <si>
     <t>title</t>
   </si>
@@ -659,6 +659,10 @@
   </si>
   <si>
     <t>没看需要对抗网络</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Neural Networks for YouTube Recommendations</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1629,10 +1633,10 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2493,6 +2497,9 @@
       <c r="H35" t="s">
         <v>183</v>
       </c>
+      <c r="I35" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2263AB1-027C-9046-B15B-503A022F1E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF61C25F-6831-B744-AD0E-7AE8A6134631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10340" yWindow="4280" windowWidth="20000" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="目录" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">目录!$A$1:$H$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">目录!$A$1:$H$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="201">
   <si>
     <t>title</t>
   </si>
@@ -663,6 +663,10 @@
   </si>
   <si>
     <t>Deep Neural Networks for YouTube Recommendations</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>读过论文没读懂</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1633,16 +1637,16 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="85" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1650,47 +1654,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.40833333333333338</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>7.4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>61480</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>39</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>114</v>
       </c>
     </row>
@@ -1698,22 +1702,22 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.88055555555555554</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>27905</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>39</v>
       </c>
     </row>
@@ -1721,22 +1725,22 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.84861111111111109</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>93252</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>34</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>82</v>
       </c>
     </row>
@@ -1744,22 +1748,22 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.9770833333333333</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>21999</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>12</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>24</v>
       </c>
     </row>
@@ -1767,22 +1771,22 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.67638888888888893</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.5</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>15128</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>23</v>
       </c>
     </row>
@@ -1790,22 +1794,22 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.6958333333333333</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14737</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>20</v>
       </c>
     </row>
@@ -1813,22 +1817,22 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.6020833333333333</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>16847</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>16</v>
       </c>
     </row>
@@ -1836,22 +1840,22 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.83472222222222225</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.6</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8913</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>18</v>
       </c>
     </row>
@@ -1859,22 +1863,22 @@
       <c r="A10" t="s">
         <v>161</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.53402777777777777</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.7</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>10766</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>22</v>
       </c>
     </row>
@@ -1882,22 +1886,22 @@
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>0.67847222222222225</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.3</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>37153</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>21</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>51</v>
       </c>
     </row>
@@ -1905,48 +1909,48 @@
       <c r="A12" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>0.68958333333333333</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.4</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>17583</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>11</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>0.69930555555555562</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>7618</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>7</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>15</v>
       </c>
     </row>
@@ -1954,48 +1958,48 @@
       <c r="A14" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>0.94791666666666663</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.9</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4567</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>0.95763888888888893</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>5845</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>8</v>
       </c>
     </row>
@@ -2003,26 +2007,26 @@
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>17721</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>164</v>
       </c>
       <c r="I16" t="s">
         <v>181</v>
@@ -2032,74 +2036,74 @@
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>0.65902777777777777</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1.6</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5003</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>0.46597222222222223</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.4</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7905</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>0.53888888888888886</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2.4</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>19595</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>13</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>22</v>
       </c>
     </row>
@@ -2107,22 +2111,22 @@
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>0.80694444444444446</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1.5</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>7688</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>18</v>
       </c>
     </row>
@@ -2131,47 +2135,47 @@
         <v>168</v>
       </c>
       <c r="B21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>0.9770833333333333</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>9947</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>172</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>3.5</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>10623</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>39</v>
       </c>
     </row>
@@ -2179,26 +2183,26 @@
       <c r="A23" t="s">
         <v>173</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>0.59722222222222221</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>17941</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>28</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2206,51 +2210,51 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>0.90416666666666667</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.4</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>5320</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>174</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>0.90208333333333324</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2.6</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>8163</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>12</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>28</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2258,13 +2262,13 @@
         <v>171</v>
       </c>
       <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>0.53125</v>
-      </c>
-      <c r="H26" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2272,47 +2276,47 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>0.67083333333333339</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>12</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>12506</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>55</v>
-      </c>
-      <c r="H27" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>176</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>0.57013888888888886</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>11832</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>16</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>30</v>
       </c>
     </row>
@@ -2321,25 +2325,25 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>0.8354166666666667</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3.4</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>6509</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>11</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>19</v>
-      </c>
-      <c r="H29" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2347,155 +2351,155 @@
         <v>177</v>
       </c>
       <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>0.75416666666666676</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>4.2</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>3238</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>28</v>
-      </c>
-      <c r="H30" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>0.61041666666666672</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>5687</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>23</v>
-      </c>
-      <c r="H31" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>0.5395833333333333</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>6673</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>25</v>
-      </c>
-      <c r="H32" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>0.9291666666666667</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>5.5</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2527</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>23</v>
-      </c>
-      <c r="H33" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>0.99930555555555556</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.6</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>3285</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>17</v>
-      </c>
-      <c r="H34" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>0.71944444444444444</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>6717</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>5</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>53</v>
-      </c>
-      <c r="H35" t="s">
-        <v>183</v>
       </c>
       <c r="I35" t="s">
         <v>199</v>
@@ -2505,22 +2509,22 @@
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>0.64374999999999993</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>2.7</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2865</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>4</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>22</v>
       </c>
       <c r="I36" t="s">
@@ -2531,100 +2535,103 @@
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>0.9868055555555556</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>7.7</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>3480</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>4</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>21</v>
-      </c>
-      <c r="H37" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>0.96666666666666667</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2678</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>2</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>29</v>
-      </c>
-      <c r="H38" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>0.88263888888888886</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>17.600000000000001</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>3246</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>5</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>0.69166666666666676</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>3.7</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>5651</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>21</v>
       </c>
     </row>
@@ -2632,22 +2639,22 @@
       <c r="A41" t="s">
         <v>66</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>0.73472222222222217</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>1.8</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>4645</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>4</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>10</v>
       </c>
     </row>
@@ -2655,22 +2662,22 @@
       <c r="A42" t="s">
         <v>68</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>0.80833333333333324</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>2.6</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>1644</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>3</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>7</v>
       </c>
     </row>
@@ -2678,22 +2685,22 @@
       <c r="A43" t="s">
         <v>70</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>0.92222222222222217</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>6</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>6511</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>6</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>17</v>
       </c>
     </row>
@@ -2701,22 +2708,22 @@
       <c r="A44" t="s">
         <v>72</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>0.73611111111111116</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>3.2</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>1522</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>11</v>
       </c>
     </row>
@@ -2724,22 +2731,22 @@
       <c r="A45" t="s">
         <v>74</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>0.91736111111111107</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>3046</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>25</v>
       </c>
     </row>
@@ -2747,22 +2754,22 @@
       <c r="A46" t="s">
         <v>76</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>0.53402777777777777</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>2</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>3914</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>9</v>
       </c>
     </row>
@@ -2770,22 +2777,22 @@
       <c r="A47" t="s">
         <v>78</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>0.59861111111111109</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>6.2</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>7259</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>2</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>31</v>
       </c>
     </row>
@@ -2793,753 +2800,750 @@
       <c r="A48" t="s">
         <v>80</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D48" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>2.6</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>2007</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>82</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="1">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>2.6</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>5360</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>2</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>84</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>0.68125000000000002</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>4.7</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>3940</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="1">
         <v>0.75138888888888899</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>2.6</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>2185</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>1</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="1">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>2.7</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>2922</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>2</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>0.91041666666666676</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>1.8</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>3633</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>2</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="1">
         <v>0.72638888888888886</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>3</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>2779</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D55" s="1">
         <v>0.97569444444444453</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>3.1</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>2349</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>1</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D56" s="1">
         <v>0.97152777777777777</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1.2</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>1887</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="1">
+      <c r="D57" s="1">
         <v>0.90277777777777779</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>1.2</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>2322</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>1</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="1">
+      <c r="D58" s="1">
         <v>0.94513888888888886</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>2.1</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>1922</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>0</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="1">
+      <c r="D59" s="1">
         <v>0.7090277777777777</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>0.7</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>1637</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>2</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="1">
+      <c r="D60" s="1">
         <v>0.93055555555555547</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>2348</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>2</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>106</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="1">
         <v>0.69305555555555554</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>1.3</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>1869</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>0</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>108</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="1">
+      <c r="D62" s="1">
         <v>0.43472222222222223</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>2.8</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>4916</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>1</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>110</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D63" s="1">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>1.6</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>2401</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>2</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>112</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="1">
+      <c r="D64" s="1">
         <v>0.55972222222222223</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>0.6</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>2203</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>114</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="1">
+      <c r="D65" s="1">
         <v>0.71666666666666667</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>1.2</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>3053</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>3</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>115</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>0.73333333333333339</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>1.3</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>2529</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>1</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>117</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="1">
+      <c r="D67" s="1">
         <v>0.53611111111111109</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>1.4</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>1832</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>0</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>119</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="1">
+      <c r="D68" s="1">
         <v>0.99513888888888891</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>0.9</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>2104</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>0</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>121</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="1">
         <v>0.79861111111111116</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>1.5</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>4300</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>0</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>123</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="1">
+      <c r="D70" s="1">
         <v>0.97986111111111107</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>2217</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>0</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>0.4284722222222222</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>3029</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>2</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D72" s="1">
         <v>0.50138888888888888</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>2070</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>1</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="1">
+      <c r="D73" s="1">
         <v>0.9159722222222223</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>1.3</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>3232</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>1</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="1">
+      <c r="D74" s="1">
         <v>0.70277777777777783</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>0.6</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>877</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>0</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="1">
+      <c r="D75" s="1">
         <v>0.76250000000000007</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>1</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>3487</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>3</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>0.69930555555555562</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>1</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>744</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>0</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="1">
+      <c r="D77" s="1">
         <v>0.77916666666666667</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>0.2</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>676</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>0</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>0.85138888888888886</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>0.7</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>1048</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>0</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="1">
+      <c r="D79" s="1">
         <v>0.67847222222222225</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>0.3</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>850</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>3</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D80" s="1">
         <v>0.95416666666666661</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>1037</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3547,395 +3551,398 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>145</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="1">
+      <c r="D81" s="1">
         <v>0.88888888888888884</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>0.3</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>457</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>0</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>147</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="1">
         <v>0.78680555555555554</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>0.3</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>1572</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>0</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>149</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="1">
+      <c r="D83" s="1">
         <v>0.6118055555555556</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>0.4</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>1100</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>3</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>151</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>152</v>
       </c>
-      <c r="C84" s="1">
+      <c r="D84" s="1">
         <v>0.62222222222222223</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>0.3</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>670</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>0</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>153</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="1">
+      <c r="D85" s="1">
         <v>0.84097222222222223</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>0.5</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>748</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>0</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>155</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>156</v>
       </c>
-      <c r="C86" s="1">
+      <c r="D86" s="1">
         <v>0.8833333333333333</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>0.4</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>722</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>1</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>157</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D87" s="1">
         <v>0.70347222222222217</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>0.3</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>348</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>0</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>159</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="1">
+      <c r="D88" s="1">
         <v>0.90069444444444446</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>0.2</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>178</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>191</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>8.01</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="1">
         <v>0.81458333333333333</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>1.4</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>885</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>1</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>190</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>8.02</v>
       </c>
-      <c r="C90" s="1">
+      <c r="D90" s="1">
         <v>0.92847222222222225</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>0.2</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>597</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>0</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>8.07</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="1">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>0.3</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>724</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>0</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>8.23</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D92" s="1">
         <v>0.91736111111111107</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>0.2</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>809</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>0</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>10.01</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="1">
         <v>0.37986111111111115</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>0.4</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>571</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>2</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>10.02</v>
       </c>
-      <c r="C94" s="1">
+      <c r="D94" s="1">
         <v>0.87083333333333324</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>0.2</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>151</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>0</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>10.029999999999999</v>
       </c>
-      <c r="C95" s="1">
+      <c r="D95" s="1">
         <v>0.97777777777777775</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>0.2</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>200</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>0</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>10.050000000000001</v>
       </c>
-      <c r="C96" s="1">
+      <c r="D96" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>0.2</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>231</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>0</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>10.08</v>
       </c>
-      <c r="C97" s="1">
+      <c r="D97" s="1">
         <v>0.4069444444444445</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>0.2</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>247</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>0</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>3</v>
       </c>
     </row>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF61C25F-6831-B744-AD0E-7AE8A6134631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C78BC21-6935-7B46-BA33-2CCD7FA50B99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="4280" windowWidth="20000" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="4280" windowWidth="18940" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="202">
   <si>
     <t>title</t>
   </si>
@@ -233,21 +233,12 @@
     <t>2019.04.14</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(四十)-SESSION-BASED RECOMMENDATIONS WITH RECURRENT NEURAL NETWORKS</t>
-  </si>
-  <si>
     <t>2019.04.29</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(四十一)-Improved Recurrent Neural Networks for Session-based Recommendations</t>
-  </si>
-  <si>
     <t>2019.05.02</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(四十二)-使用图神经网络做基于会话的推荐</t>
-  </si>
-  <si>
     <t>2019.05.09</t>
   </si>
   <si>
@@ -474,9 +465,6 @@
   </si>
   <si>
     <t>2020.3.15</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(八十一)-[阿里]DMR：Matching和Ranking相结合的点击率预估模型</t>
   </si>
   <si>
     <t>2020.3.28</t>
@@ -666,7 +654,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>读过论文没读懂</t>
+    <t>推荐系统遇上深度学习(四十)-SESSION-BASED RECOMMENDATIONS WITH RECURRENT NEURAL NETWORKS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十一)-Improved Recurrent Neural Networks for Session-based Recommendations</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文没读懂--树如何构建，网络模型如何和树在模型中融合，基于类目的初始化，训练好的模型效果表现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十二)-使用图神经网络做基于会话的推荐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(八十一)-[阿里]DMR：Matching和Ranking相结合的点击率预估模型</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1266,7 +1274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1277,6 +1285,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1637,10 +1651,10 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1654,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1861,7 +1875,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1886,97 +1900,99 @@
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>0.67847222222222225</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>1.3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>37153</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>21</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>0.68958333333333333</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>0.4</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>17583</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>165</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>0.69930555555555562</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>7618</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>7</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>0.94791666666666663</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0.9</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>4567</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1984,22 +2000,25 @@
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>0.95763888888888893</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>5845</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>8</v>
       </c>
     </row>
@@ -2007,80 +2026,80 @@
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>164</v>
+      <c r="B16" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>0.6381944444444444</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>0.2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>17721</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>12</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
-        <v>164</v>
+      <c r="B17" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>0.65902777777777777</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>1.6</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>5003</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>6</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>0.46597222222222223</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>1.4</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>7905</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>3</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>14</v>
       </c>
     </row>
@@ -2088,22 +2107,23 @@
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>0.53888888888888886</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>2.4</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>19595</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>13</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>22</v>
       </c>
     </row>
@@ -2111,31 +2131,32 @@
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>0.80694444444444446</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>1.5</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>7688</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>4</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -2158,7 +2179,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -2181,10 +2202,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -2210,7 +2231,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
@@ -2233,10 +2254,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2259,10 +2280,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -2276,7 +2297,7 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -2299,7 +2320,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
@@ -2325,7 +2346,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -2348,10 +2369,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
@@ -2376,51 +2397,51 @@
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
-        <v>164</v>
+      <c r="B31" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>0.61041666666666672</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>5687</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" t="s">
-        <v>164</v>
+        <v>174</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>0.5395833333333333</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>6673</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>3</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>25</v>
       </c>
     </row>
@@ -2428,219 +2449,223 @@
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B33" t="s">
-        <v>164</v>
+      <c r="B33" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <v>0.9291666666666667</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>5.5</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>2527</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B34" t="s">
-        <v>164</v>
+        <v>175</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <v>0.99930555555555556</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>1.6</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>3285</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>2</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <v>0.71944444444444444</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>6717</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>5</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="4">
         <v>0.64374999999999993</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>2.7</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>2865</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>4</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B37" t="s">
-        <v>196</v>
+      <c r="B37" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="4">
         <v>0.9868055555555556</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>7.7</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>3480</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>4</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4">
         <v>0.96666666666666667</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>2678</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>2</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" t="s">
-        <v>198</v>
+        <v>193</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="4">
         <v>0.88263888888888886</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>3246</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>5</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" t="s">
-        <v>200</v>
+        <v>191</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="4">
         <v>0.69166666666666676</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>3.7</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>5651</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>1</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
         <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>67</v>
       </c>
       <c r="D41" s="1">
         <v>0.73472222222222217</v>
@@ -2660,10 +2685,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D42" s="1">
         <v>0.80833333333333324</v>
@@ -2683,10 +2711,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D43" s="1">
         <v>0.92222222222222217</v>
@@ -2706,10 +2734,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D44" s="1">
         <v>0.73611111111111116</v>
@@ -2729,10 +2757,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1">
         <v>0.91736111111111107</v>
@@ -2752,10 +2780,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D46" s="1">
         <v>0.53402777777777777</v>
@@ -2775,10 +2803,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D47" s="1">
         <v>0.59861111111111109</v>
@@ -2798,10 +2826,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D48" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2821,10 +2849,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2844,10 +2872,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D50" s="1">
         <v>0.68125000000000002</v>
@@ -2867,240 +2895,250 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="1">
+        <v>84</v>
+      </c>
+      <c r="D51" s="4">
         <v>0.75138888888888899</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>2.6</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>2185</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>1</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="1">
+        <v>86</v>
+      </c>
+      <c r="D52" s="4">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>2.7</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <v>2922</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>2</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="1">
+        <v>88</v>
+      </c>
+      <c r="D53" s="4">
         <v>0.91041666666666676</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>1.8</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <v>3633</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>2</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="1">
+        <v>90</v>
+      </c>
+      <c r="D54" s="4">
         <v>0.72638888888888886</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>3</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <v>2779</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <v>0</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="1">
+        <v>92</v>
+      </c>
+      <c r="D55" s="4">
         <v>0.97569444444444453</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>3.1</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>2349</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>1</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="1">
+        <v>94</v>
+      </c>
+      <c r="D56" s="4">
         <v>0.97152777777777777</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>1.2</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <v>1887</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <v>0</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="1">
+        <v>96</v>
+      </c>
+      <c r="D57" s="4">
         <v>0.90277777777777779</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>1.2</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>2322</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>1</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" s="1">
+        <v>98</v>
+      </c>
+      <c r="D58" s="4">
         <v>0.94513888888888886</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>2.1</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>1922</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>0</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="1">
+        <v>100</v>
+      </c>
+      <c r="D59" s="4">
         <v>0.7090277777777777</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>0.7</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>1637</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>2</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="1">
+        <v>102</v>
+      </c>
+      <c r="D60" s="4">
         <v>0.93055555555555547</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <v>2348</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <v>2</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D61" s="1">
         <v>0.69305555555555554</v>
@@ -3120,10 +3158,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D62" s="1">
         <v>0.43472222222222223</v>
@@ -3143,10 +3181,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D63" s="1">
         <v>0.63194444444444442</v>
@@ -3166,10 +3204,10 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D64" s="1">
         <v>0.55972222222222223</v>
@@ -3189,10 +3227,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D65" s="1">
         <v>0.71666666666666667</v>
@@ -3212,10 +3250,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D66" s="1">
         <v>0.73333333333333339</v>
@@ -3235,10 +3273,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D67" s="1">
         <v>0.53611111111111109</v>
@@ -3258,10 +3296,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D68" s="1">
         <v>0.99513888888888891</v>
@@ -3281,10 +3319,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D69" s="1">
         <v>0.79861111111111116</v>
@@ -3304,10 +3342,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D70" s="1">
         <v>0.97986111111111107</v>
@@ -3327,240 +3365,250 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>125</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="1">
+        <v>123</v>
+      </c>
+      <c r="D71" s="4">
         <v>0.4284722222222222</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <v>3029</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="2">
         <v>2</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" s="1">
+        <v>125</v>
+      </c>
+      <c r="D72" s="4">
         <v>0.50138888888888888</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <v>2070</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="2">
         <v>1</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="1">
+        <v>127</v>
+      </c>
+      <c r="D73" s="4">
         <v>0.9159722222222223</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>1.3</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <v>3232</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="2">
         <v>1</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" s="1">
+        <v>129</v>
+      </c>
+      <c r="D74" s="4">
         <v>0.70277777777777783</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>0.6</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
         <v>877</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="2">
         <v>0</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75" s="1">
+        <v>131</v>
+      </c>
+      <c r="D75" s="4">
         <v>0.76250000000000007</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>1</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <v>3487</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="2">
         <v>3</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" s="1">
+        <v>133</v>
+      </c>
+      <c r="D76" s="4">
         <v>0.69930555555555562</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>1</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
         <v>744</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="2">
         <v>0</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="1">
+        <v>135</v>
+      </c>
+      <c r="D77" s="4">
         <v>0.77916666666666667</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>0.2</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="2">
         <v>676</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="2">
         <v>0</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D78" s="1">
+        <v>137</v>
+      </c>
+      <c r="D78" s="4">
         <v>0.85138888888888886</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <v>0.7</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="2">
         <v>1048</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="2">
         <v>0</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79" s="1">
+        <v>139</v>
+      </c>
+      <c r="D79" s="4">
         <v>0.67847222222222225</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>0.3</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <v>850</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <v>3</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" s="1">
+        <v>141</v>
+      </c>
+      <c r="D80" s="4">
         <v>0.95416666666666661</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <v>1037</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
         <v>0</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <v>0</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D81" s="1">
         <v>0.88888888888888884</v>
@@ -3580,10 +3628,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D82" s="1">
         <v>0.78680555555555554</v>
@@ -3603,10 +3651,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D83" s="1">
         <v>0.6118055555555556</v>
@@ -3626,10 +3674,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D84" s="1">
         <v>0.62222222222222223</v>
@@ -3649,10 +3697,10 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D85" s="1">
         <v>0.84097222222222223</v>
@@ -3672,10 +3720,10 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D86" s="1">
         <v>0.8833333333333333</v>
@@ -3695,10 +3743,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D87" s="1">
         <v>0.70347222222222217</v>
@@ -3718,10 +3766,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D88" s="1">
         <v>0.90069444444444446</v>
@@ -3741,7 +3789,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C89">
         <v>8.01</v>
@@ -3764,7 +3812,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C90">
         <v>8.02</v>
@@ -3787,162 +3835,169 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C91">
+        <v>185</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2">
         <v>8.07</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="4">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2">
         <v>0.3</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="2">
         <v>724</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="2">
         <v>0</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C92">
+        <v>184</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2">
         <v>8.23</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="4">
         <v>0.91736111111111107</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <v>0.2</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <v>809</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="2">
         <v>0</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C93">
+        <v>188</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2">
         <v>10.01</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="4">
         <v>0.37986111111111115</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>0.4</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>571</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="2">
         <v>2</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C94">
+        <v>183</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2">
         <v>10.02</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="4">
         <v>0.87083333333333324</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <v>0.2</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>151</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="2">
         <v>0</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C95">
+        <v>182</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2">
         <v>10.029999999999999</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="4">
         <v>0.97777777777777775</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2">
         <v>0.2</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <v>200</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="2">
         <v>0</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C96">
+        <v>181</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2">
         <v>10.050000000000001</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
         <v>0.2</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <v>231</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="2">
         <v>0</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C97">
+        <v>180</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2">
         <v>10.08</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="4">
         <v>0.4069444444444445</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2">
         <v>0.2</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <v>247</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="2">
         <v>0</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="2">
         <v>3</v>
       </c>
     </row>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C78BC21-6935-7B46-BA33-2CCD7FA50B99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5E1F7E-0EA2-BA43-9090-20ABC5473830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="4280" windowWidth="18940" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="203">
   <si>
     <t>title</t>
   </si>
@@ -594,10 +594,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>没细看--需要细看</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐系统遇上深度学习(九十六)-[第四范式]考虑域内信息和多模块非线性融合的NON模型</t>
   </si>
   <si>
@@ -675,6 +671,14 @@
   </si>
   <si>
     <t>推荐系统遇上深度学习(八十一)-[阿里]DMR：Matching和Ranking相结合的点击率预估模型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看，基于序列的推荐</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +686,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -837,6 +841,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1274,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,6 +1302,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1651,10 +1665,10 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:H20"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2001,7 +2015,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -2501,8 +2515,8 @@
       <c r="A35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>179</v>
+      <c r="B35" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>58</v>
@@ -2523,7 +2537,7 @@
         <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2558,7 +2572,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>62</v>
@@ -2581,10 +2595,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>63</v>
@@ -2607,10 +2621,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>64</v>
@@ -2633,10 +2647,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>65</v>
@@ -2659,10 +2673,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
         <v>66</v>
@@ -2685,10 +2699,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
         <v>67</v>
@@ -2711,7 +2725,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -3628,7 +3642,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82" t="s">
         <v>144</v>
@@ -3789,7 +3803,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C89">
         <v>8.01</v>
@@ -3812,7 +3826,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C90">
         <v>8.02</v>
@@ -3835,7 +3849,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2">
@@ -3859,7 +3873,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2">
@@ -3883,7 +3897,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2">
@@ -3907,7 +3921,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2">
@@ -3931,7 +3945,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2">
@@ -3955,7 +3969,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2">
@@ -3979,7 +3993,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2">

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5E1F7E-0EA2-BA43-9090-20ABC5473830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB2461D-FA3C-E243-8719-CDC839D1F0E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="4280" windowWidth="18940" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="201">
   <si>
     <t>title</t>
   </si>
@@ -218,9 +218,6 @@
     <t>2019.03.14</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(三十六)--Learning and Transferring IDs Representation in E-commerce</t>
-  </si>
-  <si>
     <t>2019.04.04</t>
   </si>
   <si>
@@ -242,13 +239,7 @@
     <t>2019.05.09</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(四十三)-考虑用户微观行为的电商推荐</t>
-  </si>
-  <si>
     <t>2019.05.10</t>
-  </si>
-  <si>
-    <t>推荐系统遇上深度学习(四十四)-Airbnb实时搜索排序中的Embedding技巧</t>
   </si>
   <si>
     <t>2019.05.12</t>
@@ -634,10 +625,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>没看代码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐系统遇上深度学习(三十八)--CFGAN:一种基于GAN的协同过滤推荐框架</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -674,11 +661,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>没实现</t>
+    <t>没看，基于序列的推荐</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>没看，基于序列的推荐</t>
+    <t>推荐系统遇上深度学习(四十三)-考虑用户微观行为的电商推荐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十四)-Airbnb实时搜索排序中的Embedding技巧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(三十六)--Learning and Transferring IDs Representation in E-commerce</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1665,10 +1660,10 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1682,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1889,7 +1884,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1936,10 +1931,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
@@ -1962,7 +1957,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -1986,10 +1981,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -2015,7 +2010,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -2041,7 +2036,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -2062,7 +2057,7 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2070,7 +2065,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -2093,10 +2088,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -2167,10 +2162,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -2193,7 +2188,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -2216,10 +2211,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -2245,7 +2240,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
@@ -2268,10 +2263,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2294,10 +2289,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -2311,7 +2306,7 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -2334,7 +2329,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
@@ -2360,7 +2355,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -2383,10 +2378,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
@@ -2412,7 +2407,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>53</v>
@@ -2435,10 +2430,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>54</v>
@@ -2464,7 +2459,7 @@
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>56</v>
@@ -2487,10 +2482,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>57</v>
@@ -2513,11 +2508,9 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>201</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
         <v>58</v>
       </c>
@@ -2537,14 +2530,16 @@
         <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>60</v>
       </c>
@@ -2564,18 +2559,16 @@
         <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D37" s="4">
         <v>0.9868055555555556</v>
@@ -2595,13 +2588,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="4">
         <v>0.96666666666666667</v>
@@ -2621,13 +2614,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="4">
         <v>0.88263888888888886</v>
@@ -2647,13 +2640,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="4">
         <v>0.69166666666666676</v>
@@ -2673,13 +2666,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1">
         <v>0.73472222222222217</v>
@@ -2699,13 +2692,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" s="1">
         <v>0.80833333333333324</v>
@@ -2725,10 +2718,13 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>195</v>
+      </c>
+      <c r="B43" t="s">
+        <v>194</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" s="1">
         <v>0.92222222222222217</v>
@@ -2748,10 +2744,13 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>198</v>
+      </c>
+      <c r="B44" t="s">
+        <v>194</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1">
         <v>0.73611111111111116</v>
@@ -2771,10 +2770,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D45" s="1">
         <v>0.91736111111111107</v>
@@ -2794,10 +2793,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D46" s="1">
         <v>0.53402777777777777</v>
@@ -2817,10 +2816,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D47" s="1">
         <v>0.59861111111111109</v>
@@ -2840,10 +2839,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D48" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2863,10 +2862,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2886,10 +2885,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1">
         <v>0.68125000000000002</v>
@@ -2909,11 +2908,11 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D51" s="4">
         <v>0.75138888888888899</v>
@@ -2933,11 +2932,11 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D52" s="4">
         <v>0.44791666666666669</v>
@@ -2957,11 +2956,11 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D53" s="4">
         <v>0.91041666666666676</v>
@@ -2981,11 +2980,11 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D54" s="4">
         <v>0.72638888888888886</v>
@@ -3005,11 +3004,11 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D55" s="4">
         <v>0.97569444444444453</v>
@@ -3029,11 +3028,11 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D56" s="4">
         <v>0.97152777777777777</v>
@@ -3053,11 +3052,11 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D57" s="4">
         <v>0.90277777777777779</v>
@@ -3077,11 +3076,11 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D58" s="4">
         <v>0.94513888888888886</v>
@@ -3101,11 +3100,11 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D59" s="4">
         <v>0.7090277777777777</v>
@@ -3125,11 +3124,11 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D60" s="4">
         <v>0.93055555555555547</v>
@@ -3149,10 +3148,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D61" s="1">
         <v>0.69305555555555554</v>
@@ -3172,10 +3171,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D62" s="1">
         <v>0.43472222222222223</v>
@@ -3195,10 +3194,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D63" s="1">
         <v>0.63194444444444442</v>
@@ -3218,10 +3217,10 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D64" s="1">
         <v>0.55972222222222223</v>
@@ -3241,10 +3240,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D65" s="1">
         <v>0.71666666666666667</v>
@@ -3264,10 +3263,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D66" s="1">
         <v>0.73333333333333339</v>
@@ -3287,10 +3286,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D67" s="1">
         <v>0.53611111111111109</v>
@@ -3310,10 +3309,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D68" s="1">
         <v>0.99513888888888891</v>
@@ -3333,10 +3332,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D69" s="1">
         <v>0.79861111111111116</v>
@@ -3356,10 +3355,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D70" s="1">
         <v>0.97986111111111107</v>
@@ -3379,11 +3378,11 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D71" s="4">
         <v>0.4284722222222222</v>
@@ -3403,11 +3402,11 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D72" s="4">
         <v>0.50138888888888888</v>
@@ -3427,11 +3426,11 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D73" s="4">
         <v>0.9159722222222223</v>
@@ -3451,11 +3450,11 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D74" s="4">
         <v>0.70277777777777783</v>
@@ -3475,11 +3474,11 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D75" s="4">
         <v>0.76250000000000007</v>
@@ -3499,11 +3498,11 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D76" s="4">
         <v>0.69930555555555562</v>
@@ -3523,11 +3522,11 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D77" s="4">
         <v>0.77916666666666667</v>
@@ -3547,11 +3546,11 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D78" s="4">
         <v>0.85138888888888886</v>
@@ -3571,11 +3570,11 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D79" s="4">
         <v>0.67847222222222225</v>
@@ -3595,11 +3594,11 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D80" s="4">
         <v>0.95416666666666661</v>
@@ -3619,10 +3618,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D81" s="1">
         <v>0.88888888888888884</v>
@@ -3642,10 +3641,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D82" s="1">
         <v>0.78680555555555554</v>
@@ -3665,10 +3664,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D83" s="1">
         <v>0.6118055555555556</v>
@@ -3688,10 +3687,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D84" s="1">
         <v>0.62222222222222223</v>
@@ -3711,10 +3710,10 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D85" s="1">
         <v>0.84097222222222223</v>
@@ -3734,10 +3733,10 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C86" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D86" s="1">
         <v>0.8833333333333333</v>
@@ -3757,10 +3756,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C87" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D87" s="1">
         <v>0.70347222222222217</v>
@@ -3780,10 +3779,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D88" s="1">
         <v>0.90069444444444446</v>
@@ -3803,7 +3802,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C89">
         <v>8.01</v>
@@ -3826,7 +3825,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C90">
         <v>8.02</v>
@@ -3849,7 +3848,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2">
@@ -3873,7 +3872,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2">
@@ -3897,7 +3896,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2">
@@ -3921,7 +3920,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2">
@@ -3945,7 +3944,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2">
@@ -3969,7 +3968,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2">
@@ -3993,7 +3992,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2">

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB2461D-FA3C-E243-8719-CDC839D1F0E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE05B46-233C-5D45-8B67-ED7732153BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="4280" windowWidth="18940" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1660,10 +1660,10 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/博客-文章/石晓文/目录.xlsx
+++ b/博客-文章/石晓文/目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmy/workspace/reference/note/博客-文章/石晓文/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE05B46-233C-5D45-8B67-ED7732153BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDC9D9B-0E37-7E42-9574-1C65DAC8567E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="4280" windowWidth="18940" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,9 +245,6 @@
     <t>2019.05.12</t>
   </si>
   <si>
-    <t>推荐系统遇上深度学习(四十五)-探秘阿里之深度会话兴趣网络DSIN</t>
-  </si>
-  <si>
     <t>2019.05.18</t>
   </si>
   <si>
@@ -674,6 +671,10 @@
   </si>
   <si>
     <t>推荐系统遇上深度学习(三十六)--Learning and Transferring IDs Representation in E-commerce</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统遇上深度学习(四十五)-探秘阿里之深度会话兴趣网络DSIN</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1660,10 +1661,10 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1677,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1884,7 +1885,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1931,10 +1932,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
@@ -1957,7 +1958,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -1981,10 +1982,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -2010,7 +2011,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -2036,7 +2037,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -2057,7 +2058,7 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2065,7 +2066,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -2088,10 +2089,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -2162,10 +2163,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" t="s">
         <v>161</v>
-      </c>
-      <c r="B21" t="s">
-        <v>162</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -2188,7 +2189,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -2211,10 +2212,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -2240,7 +2241,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
@@ -2263,10 +2264,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2289,10 +2290,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -2306,7 +2307,7 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -2329,7 +2330,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
@@ -2355,7 +2356,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -2378,10 +2379,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
@@ -2407,7 +2408,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>53</v>
@@ -2430,10 +2431,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>54</v>
@@ -2459,7 +2460,7 @@
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>56</v>
@@ -2482,10 +2483,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>57</v>
@@ -2508,7 +2509,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
@@ -2530,7 +2531,7 @@
         <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2538,7 +2539,7 @@
         <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>60</v>
@@ -2559,12 +2560,12 @@
         <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -2588,10 +2589,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>62</v>
@@ -2614,10 +2615,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>63</v>
@@ -2640,10 +2641,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>64</v>
@@ -2666,10 +2667,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
@@ -2692,10 +2693,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
         <v>66</v>
@@ -2718,10 +2719,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
         <v>67</v>
@@ -2744,10 +2745,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -2770,7 +2771,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
@@ -2793,10 +2794,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" t="s">
         <v>70</v>
-      </c>
-      <c r="C46" t="s">
-        <v>71</v>
       </c>
       <c r="D46" s="1">
         <v>0.53402777777777777</v>
@@ -2816,10 +2817,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
         <v>72</v>
-      </c>
-      <c r="C47" t="s">
-        <v>73</v>
       </c>
       <c r="D47" s="1">
         <v>0.59861111111111109</v>
@@ -2839,10 +2840,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
         <v>74</v>
-      </c>
-      <c r="C48" t="s">
-        <v>75</v>
       </c>
       <c r="D48" s="1">
         <v>6.9444444444444447E-4</v>
@@ -2862,10 +2863,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
         <v>76</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
       </c>
       <c r="D49" s="1">
         <v>9.0277777777777787E-3</v>
@@ -2885,10 +2886,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
         <v>78</v>
-      </c>
-      <c r="C50" t="s">
-        <v>79</v>
       </c>
       <c r="D50" s="1">
         <v>0.68125000000000002</v>
@@ -2908,11 +2909,11 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="4">
         <v>0.75138888888888899</v>
@@ -2932,11 +2933,11 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D52" s="4">
         <v>0.44791666666666669</v>
@@ -2956,11 +2957,11 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="4">
         <v>0.91041666666666676</v>
@@ -2980,11 +2981,11 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="4">
         <v>0.72638888888888886</v>
@@ -3004,11 +3005,11 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D55" s="4">
         <v>0.97569444444444453</v>
@@ -3028,11 +3029,11 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D56" s="4">
         <v>0.97152777777777777</v>
@@ -3052,11 +3053,11 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" s="4">
         <v>0.90277777777777779</v>
@@ -3076,11 +3077,11 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D58" s="4">
         <v>0.94513888888888886</v>
@@ -3100,11 +3101,11 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59" s="4">
         <v>0.7090277777777777</v>
@@ -3124,11 +3125,11 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D60" s="4">
         <v>0.93055555555555547</v>
@@ -3148,10 +3149,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" t="s">
         <v>100</v>
-      </c>
-      <c r="C61" t="s">
-        <v>101</v>
       </c>
       <c r="D61" s="1">
         <v>0.69305555555555554</v>
@@ -3171,10 +3172,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" t="s">
         <v>102</v>
-      </c>
-      <c r="C62" t="s">
-        <v>103</v>
       </c>
       <c r="D62" s="1">
         <v>0.43472222222222223</v>
@@ -3194,10 +3195,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" t="s">
         <v>104</v>
-      </c>
-      <c r="C63" t="s">
-        <v>105</v>
       </c>
       <c r="D63" s="1">
         <v>0.63194444444444442</v>
@@ -3217,10 +3218,10 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" t="s">
         <v>106</v>
-      </c>
-      <c r="C64" t="s">
-        <v>107</v>
       </c>
       <c r="D64" s="1">
         <v>0.55972222222222223</v>
@@ -3240,10 +3241,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" s="1">
         <v>0.71666666666666667</v>
@@ -3263,10 +3264,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
         <v>109</v>
-      </c>
-      <c r="C66" t="s">
-        <v>110</v>
       </c>
       <c r="D66" s="1">
         <v>0.73333333333333339</v>
@@ -3286,10 +3287,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" t="s">
         <v>111</v>
-      </c>
-      <c r="C67" t="s">
-        <v>112</v>
       </c>
       <c r="D67" s="1">
         <v>0.53611111111111109</v>
@@ -3309,10 +3310,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" t="s">
         <v>113</v>
-      </c>
-      <c r="C68" t="s">
-        <v>114</v>
       </c>
       <c r="D68" s="1">
         <v>0.99513888888888891</v>
@@ -3332,10 +3333,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" t="s">
         <v>115</v>
-      </c>
-      <c r="C69" t="s">
-        <v>116</v>
       </c>
       <c r="D69" s="1">
         <v>0.79861111111111116</v>
@@ -3355,10 +3356,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" t="s">
         <v>117</v>
-      </c>
-      <c r="C70" t="s">
-        <v>118</v>
       </c>
       <c r="D70" s="1">
         <v>0.97986111111111107</v>
@@ -3378,11 +3379,11 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D71" s="4">
         <v>0.4284722222222222</v>
@@ -3402,11 +3403,11 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" s="4">
         <v>0.50138888888888888</v>
@@ -3426,11 +3427,11 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D73" s="4">
         <v>0.9159722222222223</v>
@@ -3450,11 +3451,11 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D74" s="4">
         <v>0.70277777777777783</v>
@@ -3474,11 +3475,11 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D75" s="4">
         <v>0.76250000000000007</v>
@@ -3498,11 +3499,11 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D76" s="4">
         <v>0.69930555555555562</v>
@@ -3522,11 +3523,11 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D77" s="4">
         <v>0.77916666666666667</v>
@@ -3546,11 +3547,11 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D78" s="4">
         <v>0.85138888888888886</v>
@@ -3570,11 +3571,11 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D79" s="4">
         <v>0.67847222222222225</v>
@@ -3594,11 +3595,11 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D80" s="4">
         <v>0.95416666666666661</v>
@@ -3618,10 +3619,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="s">
         <v>139</v>
-      </c>
-      <c r="C81" t="s">
-        <v>140</v>
       </c>
       <c r="D81" s="1">
         <v>0.88888888888888884</v>
@@ -3641,10 +3642,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D82" s="1">
         <v>0.78680555555555554</v>
@@ -3664,10 +3665,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" t="s">
         <v>142</v>
-      </c>
-      <c r="C83" t="s">
-        <v>143</v>
       </c>
       <c r="D83" s="1">
         <v>0.6118055555555556</v>
@@ -3687,10 +3688,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" t="s">
         <v>144</v>
-      </c>
-      <c r="C84" t="s">
-        <v>145</v>
       </c>
       <c r="D84" s="1">
         <v>0.62222222222222223</v>
@@ -3710,10 +3711,10 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" t="s">
         <v>146</v>
-      </c>
-      <c r="C85" t="s">
-        <v>147</v>
       </c>
       <c r="D85" s="1">
         <v>0.84097222222222223</v>
@@ -3733,10 +3734,10 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" t="s">
         <v>148</v>
-      </c>
-      <c r="C86" t="s">
-        <v>149</v>
       </c>
       <c r="D86" s="1">
         <v>0.8833333333333333</v>
@@ -3756,10 +3757,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" t="s">
         <v>150</v>
-      </c>
-      <c r="C87" t="s">
-        <v>151</v>
       </c>
       <c r="D87" s="1">
         <v>0.70347222222222217</v>
@@ -3779,10 +3780,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" t="s">
         <v>152</v>
-      </c>
-      <c r="C88" t="s">
-        <v>153</v>
       </c>
       <c r="D88" s="1">
         <v>0.90069444444444446</v>
@@ -3802,7 +3803,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C89">
         <v>8.01</v>
@@ -3825,7 +3826,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C90">
         <v>8.02</v>
@@ -3848,7 +3849,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2">
@@ -3872,7 +3873,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2">
@@ -3896,7 +3897,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2">
@@ -3920,7 +3921,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2">
@@ -3944,7 +3945,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2">
@@ -3968,7 +3969,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2">
@@ -3992,7 +3993,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2">
